--- a/Data/BaselineCC.xlsx
+++ b/Data/BaselineCC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24223"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3600A282-A045-A045-9F2E-A5168C0F362F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3600A282-A045-A045-9F2E-A5168C0F362F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40660" yWindow="-2520" windowWidth="21240" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,22 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="291">
   <si>
     <t>Domain</t>
   </si>
@@ -35,6 +46,38 @@
   </si>
   <si>
     <t>Source Link</t>
+  </si>
+  <si>
+    <t>Embedded Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please confirm the following information is correct.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• First Name [text entry]
+• Last Name [text entry]
+• Email [text entry]
+• Phone Number [text entry]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Month [text entry]
+• Day [text entry]
+• Year [text entry]
+</t>
+  </si>
+  <si>
+    <t>Referral Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is your relationship to the person/group who referred you?   </t>
+  </si>
+  <si>
+    <t>• I provide childcare for their child(ren)  
+• I received the link from a family member/friend (who I do not provide childcare for)
+• Link was posted on social media (e.g., Facebook)  
+• My employer sent me an invitation  
+• Other, please specify: [text entry]</t>
   </si>
   <si>
     <t>DEMO (Non-Childcare)</t>
@@ -212,12 +255,12 @@
 Indicate how many times each of these barriers has delayed you getting medical care (including physical or mental health visits), leave blank or select 0 if a listed barrier has not delayed you.</t>
   </si>
   <si>
-    <t>•  Cost [Select frequency 0-10]
-•  Unable to get time away from work [Select frequency 0-10]
-•  Inability to find childcare [Select frequency 0-10]
-•  Concern over exposure to coronavirus (COVID-19) [Select frequency 0-10]
-•  Caring for family member [Select frequency 0-10]
-•  Other, please describe: [Free text]</t>
+    <t>•  Cost [Select frequency 0-20]
+•  Unable to get time away from work [Select frequency 0-20]
+•  Inability to find childcare [Select frequency 0-20]
+•  Concern over exposure to coronavirus (COVID-19) [Select frequency 0-20]
+•  Caring for family member [Select frequency 0-20]
+•  Other, please describe: [Free text] [Select frequency 0-20]</t>
   </si>
   <si>
     <t>Vaccine Module (Non-childcare)</t>
@@ -289,6 +332,12 @@
 • No</t>
   </si>
   <si>
+    <t xml:space="preserve">Do you personally know anyone in the U.S. who...                       Has been officially diagnosed as having COVID-19 by a health care provider </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you personally know anyone in the U.S. who...                       Has been hospitalized or died as a result of having COVID-19 </t>
+  </si>
+  <si>
     <t>Provider mental health/wellbeing (Non-Childcare)</t>
   </si>
   <si>
@@ -326,23 +375,15 @@
 Little interest or pleasure in doing things</t>
   </si>
   <si>
+    <t>RAPID Team Modified
+PHQ-2</t>
+  </si>
+  <si>
     <t>In the past week, how often have you been bothered by the following problems?
 Feeling down, depressed, or hopeless</t>
   </si>
   <si>
-    <t>RAPID Team Modified
-PHQ-2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.hiv.uw.edu/page/mental-health-screening/phq-2 </t>
-    </r>
+    <t>RAPID Team Modified from single item Stress measure</t>
   </si>
   <si>
     <t xml:space="preserve">Stress means a situation in which a person feels tense, restless, nervous or anxious or is unable to sleep at night because his/her mind is troubled all the time.
@@ -356,20 +397,6 @@
 • 5 - Very much </t>
   </si>
   <si>
-    <t>RAPID Team Modified from single item Stress measure</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.jstor.org/stable/pdf/40967322.pdf?casa_token=8BWrXEu4O5QAAAAA:v8l4I7NHebQhvvF9b3K6MeP2aY_Xf8VjkTWWTVui01iBUeyvscZB_ZVwMHB64Ioj05dyOmqzjTgI3OgJ7Hmz7uoXrbpAV6hT_9r6-a45miUEoP5vQSA</t>
-    </r>
-  </si>
-  <si>
     <t>Stress means a situation in which a person feels tense, restless, nervous or anxious or is unable to sleep at night because his/her mind is troubled all the time. Have you felt this kind of stress in the past week?</t>
   </si>
   <si>
@@ -377,11 +404,11 @@
 Prior to the coronavirus (COVID-19) pandemic, I often felt like I could not handle things very well </t>
   </si>
   <si>
-    <t>• Strongly agree (SA) 
-• Agree (A)
-• Not sure (NS)
-• Disagree (D)
-• Strongly Disagree (SD)</t>
+    <t xml:space="preserve">• Strongly agree 
+• Somewhat Agree 
+• Not sure 
+• Somewhat Disagree                                                                            
+• Strongly Disagree </t>
   </si>
   <si>
     <t>Answer the following question in regards to how you feel.
@@ -483,7 +510,7 @@
     <t>How many people were being supported by your total household income in 2019?</t>
   </si>
   <si>
-    <t>Single select from 1-20</t>
+    <t>Single select from 0-20</t>
   </si>
   <si>
     <t xml:space="preserve">To the best of your knowledge, what is your gross (before taxes) household income from all sources, including from providing childcare, currently?  
@@ -518,8 +545,9 @@
 • Does not apply</t>
   </si>
   <si>
-    <t>Do you currently get free or reduced lunches for your child(ren)? Select all that apply
-Example: School Lunch and Breakfast Assistance Program</t>
+    <t xml:space="preserve">Do you currently get free or reduced lunches for your child(ren)? Select all that apply
+Please respond in regards to your own children
+Example: School Lunch and Breakfast Assistance Program  </t>
   </si>
   <si>
     <t>• Yes, my child(ren) receive(s) free or reduced lunches
@@ -533,40 +561,47 @@
     <t xml:space="preserve">What was your employment status prior to the coronavirus (COVID-19) Pandemic? </t>
   </si>
   <si>
+    <t>• Employed/self-employed as a childcare provider  
+• Employed/self-employed, NOT as a childcare provider
+• Unemployed or laid off  
+• Temporarily out of work or furloughed  
+• Stay-at-home parent (not seeking employment)
+• Providing unpaid childcare  
+• Other (please specify) [text entry]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following best describes your current employment status? </t>
+  </si>
+  <si>
+    <t>Developed by RAPID Team</t>
+  </si>
+  <si>
+    <t>Has your level of employment decreased due to the coronavirus (COVID-19) pandemic?</t>
+  </si>
+  <si>
+    <t>• Yes
+• No
+• Not Applicable</t>
+  </si>
+  <si>
+    <t>RAPID Team Modified from U.S. Census </t>
+  </si>
+  <si>
+    <t>What was your partner's employment status prior to the coronavirus (COVID-19) Pandemic? If you do not have a partner, please select not applicable. </t>
+  </si>
+  <si>
     <t>• Working
 • Unemployed or laid off
 • Temporarily out of work or furloughed
-• Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which of the following best describes your current employment status? </t>
-  </si>
-  <si>
-    <t>Has your level of employment decreased due to the coronavirus (COVID-19) pandemic?</t>
-  </si>
-  <si>
-    <t>• Yes
-• No
-• Not Applicable</t>
-  </si>
-  <si>
-    <t>Developed by RAPID Team</t>
-  </si>
-  <si>
-    <t>What was your partner's employment status prior to the coronavirus (COVID-19) Pandemic? If you do not have a partner, please select not applicable. </t>
-  </si>
-  <si>
-    <t>• Working
-• Unemployed or laid off
-• Temporarily out of work or furloughed
-• Other
-• Not applicable</t>
-  </si>
-  <si>
-    <t>RAPID Team Modified from U.S. Census </t>
+• Stay-at-home parent (not seeking employment)  
+• Other (please specify) [text entry]
+•Not applicable</t>
   </si>
   <si>
     <t>What is your partner's current employment status? If you do not have a partner, please select not applicable. </t>
+  </si>
+  <si>
+    <t>RAPID Team Modified</t>
   </si>
   <si>
     <t>Are you receiving any sort of public or employment benefits?
@@ -577,9 +612,6 @@
 • No
 • Didn't Qualify
 • Intend to Apply</t>
-  </si>
-  <si>
-    <t>RAPID Team Modified</t>
   </si>
   <si>
     <t>[If receiving benefits]
@@ -599,6 +631,114 @@
 • Other, please desceribe [Free Text]</t>
   </si>
   <si>
+    <t>RAPID Team Modified from Economic Harship Questionnaire</t>
+  </si>
+  <si>
+    <t>https://www.jstor.org/stable/1131068?seq=12#metadata_info_tab_contents </t>
+  </si>
+  <si>
+    <t>INCOME AND EMPLOYMENT (Childcare)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior to the coronavirus (COVID-19) pandemic, were you employed/self-employed as a childcare provider? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior to the coronavirus pandemic, was you childcare provider employment/business your primary source of income? </t>
+  </si>
+  <si>
+    <t>Approximately how much of your household income in 2019 came from your work with children under age 5?</t>
+  </si>
+  <si>
+    <t>• All
+• Almost all
+• More than half
+• About half
+• Less than half
+• Very little
+• None
+• Not applicable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many non-childcare jobs were you employed at prior to the coronavirus (COVID-19) pandemic? </t>
+  </si>
+  <si>
+    <t>Single select from 1-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently, are you employed/self-employed as a childcare provider? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently, is your childcare provider employment/business your primary source of income? </t>
+  </si>
+  <si>
+    <t>Approximately how much of your current household income comes from your work with children under age 5?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many non-childcare jobs are you currently employed at? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior to the coronavirus (COVID-19) pandemic, where did you mainly provide childcare? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• In my home  
+• In the child's home  
+• A childcare center                                                                        • Other, please specify [text entry] 
+• I did not provide childcare prior to the coronavirus pandemic  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently, where do you mainly provide childcare? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you currently caring for more or fewer children than before the pandemic? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• More
+• No change
+• Fewer
+• I did not provide childcare prior to the coronavirus pandemic  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How have your earnings changed as a result of changes in number of children you provide care for? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Increased earnings
+• No change
+• Decreased earnings
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your role as a childcare provider, does your state consider you an essential worker? </t>
+  </si>
+  <si>
+    <t>• Yes
+• No
+• Unsure</t>
+  </si>
+  <si>
+    <t>Have you accessed any benefits related to this status (essential worker)? Select all that apply.</t>
+  </si>
+  <si>
+    <t>• Hazard pay  
+• Vaccine prioritization
+• Personal protective equipment  
+• Other, please specify  [text entry]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have paid sick days as a childcare provider? </t>
+  </si>
+  <si>
+    <t>How likely is it that you would lose your job providing childcare or your childcare business if you were required to take at least 2 weeks of sick leave?</t>
+  </si>
+  <si>
+    <t>• Very likely
+• Likely
+• Neutral/Unsure
+• Unlikely
+• Very unlikely
+• Not applicable</t>
+  </si>
+  <si>
     <t>EHQ (Non-Childcare)</t>
   </si>
   <si>
@@ -612,20 +752,6 @@
 • Has decreased very much</t>
   </si>
   <si>
-    <t>RAPID Team Modified from Economic Harship Questionnaire</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.jstor.org/stable/1131068?seq=12#metadata_info_tab_contents </t>
-    </r>
-  </si>
-  <si>
     <t>Which of the following best describes your family financially at this time:</t>
   </si>
   <si>
@@ -635,6 +761,9 @@
 • Extreme problemsq</t>
   </si>
   <si>
+    <t>IOM Financial Strain</t>
+  </si>
+  <si>
     <t>FSTR (Non-Childcare)</t>
   </si>
   <si>
@@ -645,20 +774,6 @@
 •  Hard
 •  Somewhat hard
 •  Not very hard</t>
-  </si>
-  <si>
-    <t>IOM Financial Strain</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5492520/</t>
-    </r>
   </si>
   <si>
     <t>[If very hard, hard or somewhat hard to pay for basics]
@@ -723,31 +838,23 @@
 </t>
   </si>
   <si>
-    <t>With the first federal stimulus check in 2020, did you:    Select only one answer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Mostly spend it  
-• Mostly save it  
-• Mostly use it to pay off debt   
+    <t>What did you and your household spend the first federal stimulus check in 2020 on? Select all that apply.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•  Food
+•  Clothing
+•  Household supplies and personal care
+•  Household items (TV, electronics, furniture, appliances)
+•  Recreational goods (sports and fitness equipment, bicycles, toys, games)
+•  Rent  
+•  Mortgage  
+•  Utilities and telecommunications  
+•  Vehicle payments  
+•  Paying down credit card, student loans, or other debts  
+• Charitable donations or giving to family members  
+•  Savings or other investments  
+•  Other, please describe [Free text]
 </t>
-  </si>
-  <si>
-    <t>What did you and your household spend the first federal stimulus check in 2020 on? Select all that apply.</t>
-  </si>
-  <si>
-    <t>• Food   
-• Clothing  
-• Household supplies and personal care  
-• Household items (TV, electronics, furniture, appliances)   
-• Recreational goods (sports and fitness equipment, bicycles, toys, games
-• Rent   
-• Mortgage 
-• Utilities and telecommunications  
-• Vehicle payments  
-• Paying down credit card, student loans, or other debts   
-• Charitable donations or giving to family members   
-• Savings or other investments  
-• Other, please describe: (text entry)</t>
   </si>
   <si>
     <t xml:space="preserve">Please indicate how much you agree with the following statement: 
@@ -780,11 +887,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">With the second federal stimulus check in 2020, did you:     
-Select only one answer.
-</t>
-  </si>
-  <si>
     <t>What did you and your household spend the second federal stimulus check in 2020 on? Select all that apply.</t>
   </si>
   <si>
@@ -807,11 +909,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">With the $600 unemployment bonus/benefit related to COVID-19, did you:  
-Select only one answer.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">What did you and your household spend your $600 unemployment bonus/benefit related to COVID-19 on? Select all that apply. </t>
   </si>
   <si>
@@ -864,11 +961,11 @@
   <si>
     <t xml:space="preserve">•I am a teacher in a licensed school/center-based childcare program  
 •I am a director/administrator of a licensed school/center-based childcare program  
-•I operate a licensed or registered home-based childcare program  
-•I operate an unlicensed/license-exempt or unregistered home-based childcare program  
+•I operate a licensed or registered home-based childcare program in my home                                                                     •I operate a licensed or registered home-based childcare program in my home  
+•I operate an unlicensed/license-exempt or unregistered home-based childcare program                                                  •I operate an unlicensed/license-exempt or unregistered childcare program in my client's home(s) 
 •I care for child(ren) age 0-5 of a family member, friend, or neighbor  
-•I care for child(ren) age 0-5 as a babysitter or nanny   
-•Other (please specify) (text entry) </t>
+•I care for child(ren) age 0-5 as a babysitter                             •I care for child(ren) age 0-5 as a nanny     
+•Other (please specify) [text entry] </t>
   </si>
   <si>
     <t>If you provide childcare for a family member, friend, or neighbor, what is your relationship with the parents/guardians of the children in your care? Select all that apply. </t>
@@ -878,6 +975,37 @@
 •Friend  
 •Neighbor
 •Other, please specify: (text entry)</t>
+  </si>
+  <si>
+    <t>As a babysitter, nanny, or in your role providing childcare to a family member, friend, or neighbor, where do you mostly provide childcare?</t>
+  </si>
+  <si>
+    <t>• In my home    
+• In the child's home    
+• Other (please specify) [text entry]</t>
+  </si>
+  <si>
+    <t>Is your current role as a childcare provider different from what it was prior to the coronavirus (COVID-19) pandemic?</t>
+  </si>
+  <si>
+    <t>What best describes your role as a childcare provider prior to the coronavirus (COVID-19) pandemic? Select all that apply.</t>
+  </si>
+  <si>
+    <t>If you provided childcare for a family member, friend, or neighbor prior to the coronavirus pandemic, what was your relationship with the parents/guardians of the children in your care? Select all that apply. </t>
+  </si>
+  <si>
+    <t>•Family  
+•Friend  
+•Neighbor
+•Other (please specify)[text entry]</t>
+  </si>
+  <si>
+    <t>Prior to the coronavirus (COVID-19) pandemic, where did you mostly provide childcare as a babysitter, nanny, or when providing childcare for a family member, friend, or neighbor?</t>
+  </si>
+  <si>
+    <t>•In my home
+•In the child's home
+•Other (please specify) [text entry]</t>
   </si>
   <si>
     <t>Overall, how many hours per week do you provide care to children who are not your own?</t>
@@ -940,9 +1068,6 @@
   </si>
   <si>
     <t>What is the age of the oldest child you care for between the ages of 0-5? </t>
-  </si>
-  <si>
-    <t>INCOME AND EMPLOYMENT (Childcare)</t>
   </si>
   <si>
     <t>Prior to the coronavirus (COVID-19) pandemic, were you employed/self-employed as a childcare provider? </t>
@@ -973,9 +1098,6 @@
     <t>Currently, are you employed/self-employed as a childcare provider? </t>
   </si>
   <si>
-    <t>Approximately how much of your current household income comes from your work with children under age 5?</t>
-  </si>
-  <si>
     <t>Currently, is your childcare provider employment/business your primary source of income? </t>
   </si>
   <si>
@@ -996,9 +1118,6 @@
     <t>Currently, where do you mainly provide childcare? </t>
   </si>
   <si>
-    <t xml:space="preserve">Are you currently caring for more or fewer children than before the pandemic? </t>
-  </si>
-  <si>
     <t xml:space="preserve">•More   
 •No change  
 •Fewer  
@@ -1006,9 +1125,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">How have your earnings changed as a result of changes in number of children you provide care for? </t>
-  </si>
-  <si>
     <t xml:space="preserve">•Increased earnings  
 •No change   
 •Decreased earnings   
@@ -1033,34 +1149,23 @@
 •Other, please specify  (text entry)</t>
   </si>
   <si>
-    <t xml:space="preserve">Do you have paid sick days as a childcare provider? </t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>How likely is it that you would lose your job</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> providing childcare or your childcare business </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>if you were required to take at least 2 weeks of sick leave?</t>
     </r>
@@ -1082,29 +1187,23 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t> the coronavirus (COVID-19) pandemic, how often did you talk with a parent about something happening in the child’s family (for example child-parent relationships, stresses like parent’s finances and employment; family tensions)</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>Since </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>the coronavirus (COVID-19) pandemic, how often do you talk with a parent about something happening in the child’s family (for example child-parent relationships, stresses like parent’s finances and employment; family tensions)</t>
-    </r>
+    <t>• Never
+• Rarely
+• Sometimes
+• Usually 
+• Always 
+• Not applicable</t>
+  </si>
+  <si>
+    <t>In the past week, how often do you talk with a parent about something happening in the child’s family (for example child-parent relationships, stresses like parent’s finances and employment; family tensions)</t>
   </si>
   <si>
     <t xml:space="preserve">Prior to the coronavirus (COVID-19) pandemic, how did you feel about the following statement: 
@@ -1120,20 +1219,67 @@
 • Not applicable</t>
   </si>
   <si>
-    <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic, how do you feel about the following statement: 
+    <t xml:space="preserve">In the past week, how do you feel about the following statement: 
  “There were major sources of stress in the children’s lives that I couldn’t do anything about"
 </t>
   </si>
   <si>
+    <t xml:space="preserve">How often do you engage in the following activities as a childcare provider?                                                                                                       I create activities that build on the child/ren's interests </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Never
+• Rarely
+• Often
+• All the time 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How often do you engage in the following activities as a childcare provider?                                                                                                       I read to the child/ren  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How often do you engage in the following activities as a childcare provider?                                                                                                       I sing to the child/ren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How often do you engage in the following activities as a childcare provider?                                                                                                       I tell stories to the child/ren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How often do you engage in the following activities as a childcare provider?                                                                                                       I provide supportive teaching of positive behavior  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How often do you engage in the following activities as a childcare provider?                                                                                                       I prevent challenging behaviors  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How often do you engage in the following activities as a childcare provider?                                                                                                       I engage in a back-and-forth exchange with the child/ren's verbal and nonverbal communication  </t>
+  </si>
+  <si>
+    <t>I ensure the home environment is safe and promotes child wellness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Never
+• Rarely
+• Often
+• All the time
+• Not applicable
+</t>
+  </si>
+  <si>
+    <t>I am familiar with the stages of child development and can anticipate the next stage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Agree
+• Disagree
+</t>
+  </si>
+  <si>
+    <t>[text entry]</t>
+  </si>
+  <si>
     <t>OPEN ENDED (Childcare)</t>
   </si>
   <si>
     <t>What are the biggest challenges and concerns for you as a childcare provider right now?</t>
   </si>
   <si>
-    <t>[text entry]</t>
-  </si>
-  <si>
     <t>What/who is helping you as a childcare provider the most right now?</t>
   </si>
   <si>
@@ -1141,6 +1287,46 @@
   </si>
   <si>
     <t>Is it okay to share your comments in our research communications? We will not use your name or any other identifiable information!</t>
+  </si>
+  <si>
+    <t>Survey Experience</t>
+  </si>
+  <si>
+    <t>In the past 12 months, have you been invited to take another survey or surveys about your role as a childcare provider?</t>
+  </si>
+  <si>
+    <t>•Yes  
+•No  
+•Not sure/can't remember</t>
+  </si>
+  <si>
+    <t>In the past 12 months, how many surveys related to your role as a childcare provider have you taken?</t>
+  </si>
+  <si>
+    <t>Single select between 0 to 10</t>
+  </si>
+  <si>
+    <t>How would you rate your overall experience taking this survey?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Very bad
+•Somewhat bad
+•Somewhat good
+•Very good
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please indicate how much you agree with each of the following statements:                                                        This survey was easy for me to take </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Strongly disagree
+•Disagree
+•Agree
+•Strongly agree
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please indicate how much you agree with each of the following statements:                                                              I would be likely to recommend another childcare provider take this survey </t>
   </si>
   <si>
     <t>Text Consent</t>
@@ -1160,48 +1346,36 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="11"/>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1214,8 +1388,20 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1299,81 +1485,298 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2535,1878 +2938,2409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:5" ht="108" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="1:5" ht="108" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" spans="1:5" ht="104.25" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>5</v>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>5</v>
-      </c>
       <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="1:5" ht="135" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="8" spans="1:5" ht="135" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" spans="1:5" ht="134.25" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+    </row>
+    <row r="10" spans="1:5" ht="67.5" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+    </row>
+    <row r="11" spans="1:5" ht="90" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+    </row>
+    <row r="12" spans="1:5" ht="180" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="15" spans="1:5" ht="135" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>5</v>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+    </row>
+    <row r="16" spans="1:5" ht="135" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="C16" s="4" t="s">
         <v>34</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+    </row>
+    <row r="17" spans="1:5" ht="135" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="225" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+    </row>
+    <row r="18" spans="1:5" ht="75" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>34</v>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+    </row>
+    <row r="19" spans="1:5" ht="45" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="1:5" ht="225" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+    </row>
+    <row r="21" spans="1:5" ht="232.5" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="C21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+    </row>
+    <row r="22" spans="1:5" ht="179.25" customHeight="1">
+      <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>41</v>
+      <c r="C22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+    </row>
+    <row r="23" spans="1:5" ht="90" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+    </row>
+    <row r="24" spans="1:5" ht="90" customHeight="1">
+      <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="B24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+    </row>
+    <row r="25" spans="1:5" ht="90" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="C25" s="4" t="s">
         <v>53</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+    </row>
+    <row r="26" spans="1:5" ht="90" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+    </row>
+    <row r="27" spans="1:5" ht="90" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+    </row>
+    <row r="28" spans="1:5" ht="75" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>56</v>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+    </row>
+    <row r="29" spans="1:5" ht="105" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+    </row>
+    <row r="30" spans="1:5" ht="105" customHeight="1">
+      <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>56</v>
-      </c>
       <c r="B30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+    </row>
+    <row r="31" spans="1:5" ht="105" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="12" t="s">
+      <c r="C31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+    </row>
+    <row r="32" spans="1:5" ht="105" customHeight="1">
+      <c r="A32" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="B32" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="225" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>56</v>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+    </row>
+    <row r="33" spans="1:5" ht="105" customHeight="1">
+      <c r="A33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+    </row>
+    <row r="34" spans="1:5" ht="105" customHeight="1">
+      <c r="A34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+    </row>
+    <row r="35" spans="1:5" ht="105" customHeight="1">
+      <c r="A35" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="C35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+    </row>
+    <row r="36" spans="1:5" ht="105" customHeight="1">
+      <c r="A36" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+    </row>
+    <row r="37" spans="1:5" ht="105" customHeight="1">
+      <c r="A37" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+    </row>
+    <row r="38" spans="1:5" ht="105" customHeight="1">
+      <c r="A38" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="6" t="s">
+      <c r="E38" s="37"/>
+    </row>
+    <row r="39" spans="1:5" ht="225" customHeight="1">
+      <c r="A39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
-        <v>56</v>
+      <c r="E39" s="37"/>
+    </row>
+    <row r="40" spans="1:5" ht="75" customHeight="1">
+      <c r="A40" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
-        <v>56</v>
+      <c r="C40" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+    </row>
+    <row r="41" spans="1:5" ht="135" customHeight="1">
+      <c r="A41" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
-        <v>56</v>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+    </row>
+    <row r="42" spans="1:5" ht="135" customHeight="1">
+      <c r="A42" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
-        <v>56</v>
+      <c r="C42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+    </row>
+    <row r="43" spans="1:5" ht="135" customHeight="1">
+      <c r="A43" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
-        <v>56</v>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+    </row>
+    <row r="44" spans="1:5" ht="135" customHeight="1">
+      <c r="A44" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
-        <v>56</v>
+      <c r="C44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+    </row>
+    <row r="45" spans="1:5" ht="75" customHeight="1">
+      <c r="A45" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+    </row>
+    <row r="46" spans="1:5" ht="75" customHeight="1">
+      <c r="A46" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="6" t="s">
+      <c r="C46" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
-        <v>56</v>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+    </row>
+    <row r="47" spans="1:5" ht="75" customHeight="1">
+      <c r="A47" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
-        <v>56</v>
+      <c r="C47" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+    </row>
+    <row r="48" spans="1:5" ht="75" customHeight="1">
+      <c r="A48" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
-        <v>56</v>
+      <c r="C48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+    </row>
+    <row r="49" spans="1:5" ht="75" customHeight="1">
+      <c r="A49" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
-        <v>56</v>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+    </row>
+    <row r="50" spans="1:5" ht="75" customHeight="1">
+      <c r="A50" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
-        <v>56</v>
+        <v>91</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+    </row>
+    <row r="51" spans="1:5" ht="75" customHeight="1">
+      <c r="A51" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
-        <v>56</v>
+        <v>93</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+    </row>
+    <row r="52" spans="1:5" ht="75" customHeight="1">
+      <c r="A52" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="14" t="s">
-        <v>56</v>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+    </row>
+    <row r="53" spans="1:5" ht="75" customHeight="1">
+      <c r="A53" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="14" t="s">
-        <v>56</v>
+        <v>95</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+    </row>
+    <row r="54" spans="1:5" ht="75" customHeight="1">
+      <c r="A54" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
-        <v>56</v>
+        <v>96</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+    </row>
+    <row r="55" spans="1:5" ht="75" customHeight="1">
+      <c r="A55" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="14" t="s">
-        <v>56</v>
+        <v>97</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+    </row>
+    <row r="56" spans="1:5" ht="75" customHeight="1">
+      <c r="A56" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+    </row>
+    <row r="57" spans="1:5" ht="75" customHeight="1">
+      <c r="A57" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
-        <v>97</v>
+      <c r="C57" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+    </row>
+    <row r="58" spans="1:5" ht="75" customHeight="1">
+      <c r="A58" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+    </row>
+    <row r="59" spans="1:5" ht="75" customHeight="1">
+      <c r="A59" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" s="6" t="s">
+      <c r="C59" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+    </row>
+    <row r="60" spans="1:5" ht="75" customHeight="1">
+      <c r="A60" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B60" s="6" t="s">
+      <c r="C60" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+    </row>
+    <row r="61" spans="1:5" ht="165" customHeight="1">
+      <c r="A61" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B61" s="6" t="s">
+      <c r="C61" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+    </row>
+    <row r="62" spans="1:5" ht="64.5" customHeight="1">
+      <c r="A62" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="B62" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B62" s="6" t="s">
+      <c r="C62" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+    </row>
+    <row r="63" spans="1:5" ht="135" customHeight="1">
+      <c r="A63" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B63" s="6" t="s">
+      <c r="C63" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" customHeight="1">
+      <c r="A64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64" s="6" t="s">
+      <c r="C64" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+    </row>
+    <row r="65" spans="1:5" ht="90" customHeight="1">
+      <c r="A65" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C65" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+    </row>
+    <row r="66" spans="1:5" ht="135" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B65" s="6" t="s">
+      <c r="C66" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B66" s="6" t="s">
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+    </row>
+    <row r="67" spans="1:5" ht="135" customHeight="1">
+      <c r="A67" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C67" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+    </row>
+    <row r="68" spans="1:5" ht="142.5" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B67" s="6" t="s">
+      <c r="C68" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+    </row>
+    <row r="69" spans="1:5" ht="105" customHeight="1">
+      <c r="A69" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="C69" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B68" s="6" t="s">
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+    </row>
+    <row r="70" spans="1:5" ht="120.75" customHeight="1">
+      <c r="A70" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="C70" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B69" s="6" t="s">
+      <c r="D70" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="E70" s="38"/>
+    </row>
+    <row r="71" spans="1:5" ht="75" customHeight="1">
+      <c r="A71" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="C71" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="1:5" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B70" s="6" t="s">
+      <c r="D71" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="E71" s="38"/>
+    </row>
+    <row r="72" spans="1:5" ht="92.25" customHeight="1">
+      <c r="A72" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="13" t="s">
+      <c r="C72" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="D72" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E72" s="38"/>
+    </row>
+    <row r="73" spans="1:5" ht="105" customHeight="1">
+      <c r="A73" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C73" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E73" s="38"/>
+    </row>
+    <row r="74" spans="1:5" ht="195" customHeight="1">
+      <c r="A74" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="C74" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B72" s="6" t="s">
+      <c r="D74" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E74" s="38"/>
+    </row>
+    <row r="75" spans="1:5" ht="120" customHeight="1">
+      <c r="A75" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C75" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="13" t="s">
+      <c r="D75" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="E75" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C73" s="3" t="s">
+    </row>
+    <row r="76" spans="1:5" ht="120" customHeight="1">
+      <c r="A76" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="B76" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="C76" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="37"/>
+      <c r="E76" s="24"/>
+    </row>
+    <row r="77" spans="1:5" ht="120" customHeight="1">
+      <c r="A77" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="13" t="s">
+      <c r="C77" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="37"/>
+      <c r="E77" s="24"/>
+    </row>
+    <row r="78" spans="1:5" ht="120" customHeight="1">
+      <c r="A78" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D78" s="37"/>
+      <c r="E78" s="24"/>
+    </row>
+    <row r="79" spans="1:5" ht="120" customHeight="1">
+      <c r="A79" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D79" s="37"/>
+      <c r="E79" s="24"/>
+    </row>
+    <row r="80" spans="1:5" ht="120" customHeight="1">
+      <c r="A80" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="37"/>
+      <c r="E80" s="24"/>
+    </row>
+    <row r="81" spans="1:5" ht="120" customHeight="1">
+      <c r="A81" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="37"/>
+      <c r="E81" s="24"/>
+    </row>
+    <row r="82" spans="1:5" ht="120" customHeight="1">
+      <c r="A82" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D82" s="37"/>
+      <c r="E82" s="24"/>
+    </row>
+    <row r="83" spans="1:5" ht="120" customHeight="1">
+      <c r="A83" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D83" s="37"/>
+      <c r="E83" s="24"/>
+    </row>
+    <row r="84" spans="1:5" ht="120" customHeight="1">
+      <c r="A84" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D84" s="37"/>
+      <c r="E84" s="24"/>
+    </row>
+    <row r="85" spans="1:5" ht="120" customHeight="1">
+      <c r="A85" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D85" s="37"/>
+      <c r="E85" s="24"/>
+    </row>
+    <row r="86" spans="1:5" ht="120" customHeight="1">
+      <c r="A86" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D86" s="37"/>
+      <c r="E86" s="24"/>
+    </row>
+    <row r="87" spans="1:5" ht="120" customHeight="1">
+      <c r="A87" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D87" s="37"/>
+      <c r="E87" s="24"/>
+    </row>
+    <row r="88" spans="1:5" ht="120" customHeight="1">
+      <c r="A88" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D88" s="37"/>
+      <c r="E88" s="24"/>
+    </row>
+    <row r="89" spans="1:5" ht="120" customHeight="1">
+      <c r="A89" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D89" s="37"/>
+      <c r="E89" s="24"/>
+    </row>
+    <row r="90" spans="1:5" ht="120" customHeight="1">
+      <c r="A90" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D90" s="37"/>
+      <c r="E90" s="24"/>
+    </row>
+    <row r="91" spans="1:5" ht="120" customHeight="1">
+      <c r="A91" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D91" s="37"/>
+      <c r="E91" s="24"/>
+    </row>
+    <row r="92" spans="1:5" ht="120" customHeight="1">
+      <c r="A92" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D92" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="1:5" ht="240" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" ht="240" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="1:5" ht="240" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B87" s="6" t="s">
+      <c r="E92" s="24"/>
+    </row>
+    <row r="93" spans="1:5" ht="60" customHeight="1">
+      <c r="A93" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-    </row>
-    <row r="89" spans="1:5" ht="240" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B89" s="6" t="s">
+      <c r="B93" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B90" s="6" t="s">
+      <c r="C93" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B91" s="6" t="s">
+      <c r="D93" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-    </row>
-    <row r="92" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="13" t="s">
+      <c r="E93" s="24"/>
+    </row>
+    <row r="94" spans="1:5" ht="120" customHeight="1">
+      <c r="A94" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B94" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C94" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="13" t="s">
+      <c r="D94" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E94" s="25"/>
+    </row>
+    <row r="95" spans="1:5" ht="150" customHeight="1">
+      <c r="A95" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B95" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="13" t="s">
+      <c r="C95" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E95" s="25"/>
+    </row>
+    <row r="96" spans="1:5" ht="240" customHeight="1">
+      <c r="A96" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="13" t="s">
+      <c r="B96" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="C96" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B96" s="6" t="s">
+      <c r="D96" s="38"/>
+      <c r="E96" s="25"/>
+    </row>
+    <row r="97" spans="1:5" ht="135" customHeight="1">
+      <c r="A97" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B97" s="6" t="s">
+      <c r="C97" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="13" t="s">
-        <v>170</v>
+      <c r="D97" s="38"/>
+      <c r="E97" s="25"/>
+    </row>
+    <row r="98" spans="1:5" ht="60" customHeight="1">
+      <c r="A98" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D98" s="38"/>
+      <c r="E98" s="25"/>
+    </row>
+    <row r="99" spans="1:5" ht="240" customHeight="1">
+      <c r="A99" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E98" s="7"/>
-    </row>
-    <row r="99" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="13" t="s">
-        <v>170</v>
-      </c>
       <c r="B99" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E99" s="7"/>
-    </row>
-    <row r="100" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D99" s="38"/>
+      <c r="E99" s="25"/>
+    </row>
+    <row r="100" spans="1:5" ht="113.25" customHeight="1">
+      <c r="A100" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C100" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D100" s="38"/>
+      <c r="E100" s="25"/>
+    </row>
+    <row r="101" spans="1:5" ht="135" customHeight="1">
+      <c r="A101" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="38"/>
+      <c r="E101" s="25"/>
+    </row>
+    <row r="102" spans="1:5" ht="118.5" customHeight="1">
+      <c r="A102" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D102" s="38"/>
+      <c r="E102" s="25"/>
+    </row>
+    <row r="103" spans="1:5" ht="213.75" customHeight="1">
+      <c r="A103" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-    </row>
-    <row r="101" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-    </row>
-    <row r="102" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-    </row>
-    <row r="103" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-    </row>
-    <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="13" t="s">
-        <v>176</v>
+      <c r="D103" s="38"/>
+      <c r="E103" s="25"/>
+    </row>
+    <row r="104" spans="1:5" ht="102.75" customHeight="1">
+      <c r="A104" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-    </row>
-    <row r="105" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="13" t="s">
-        <v>176</v>
+      <c r="C104" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D104" s="38"/>
+      <c r="E104" s="25"/>
+    </row>
+    <row r="105" spans="1:5" ht="150" customHeight="1">
+      <c r="A105" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-    </row>
-    <row r="106" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="13" t="s">
-        <v>176</v>
+      <c r="C105" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="38"/>
+      <c r="E105" s="25"/>
+    </row>
+    <row r="106" spans="1:5" ht="106.5" customHeight="1">
+      <c r="A106" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-    </row>
-    <row r="107" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="13" t="s">
-        <v>176</v>
+      <c r="C106" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D106" s="38"/>
+      <c r="E106" s="25"/>
+    </row>
+    <row r="107" spans="1:5" ht="210.75" customHeight="1">
+      <c r="A107" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-    </row>
-    <row r="108" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="13" t="s">
-        <v>176</v>
+        <v>189</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D107" s="38"/>
+      <c r="E107" s="25"/>
+    </row>
+    <row r="108" spans="1:5" ht="121.5" customHeight="1">
+      <c r="A108" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-    </row>
-    <row r="109" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="13" t="s">
-        <v>176</v>
+        <v>190</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D108" s="38"/>
+      <c r="E108" s="25"/>
+    </row>
+    <row r="109" spans="1:5" ht="45" customHeight="1">
+      <c r="A109" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-    </row>
-    <row r="110" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="13" t="s">
-        <v>176</v>
+        <v>191</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E109" s="25"/>
+    </row>
+    <row r="110" spans="1:5" ht="45" customHeight="1">
+      <c r="A110" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C110" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D110" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E110" s="25"/>
+    </row>
+    <row r="111" spans="1:5" ht="57" customHeight="1">
+      <c r="A111" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-    </row>
-    <row r="111" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="B111" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C111" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-    </row>
-    <row r="112" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="13" t="s">
-        <v>176</v>
+      <c r="D111" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E111" s="25"/>
+    </row>
+    <row r="112" spans="1:5" ht="45" customHeight="1">
+      <c r="A112" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C112" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-    </row>
-    <row r="113" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="13" t="s">
-        <v>176</v>
+      <c r="C112" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D112" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E112" s="25"/>
+    </row>
+    <row r="113" spans="1:5" ht="45" customHeight="1">
+      <c r="A113" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="B113" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D113" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E113" s="25"/>
+    </row>
+    <row r="114" spans="1:5" ht="45" customHeight="1">
+      <c r="A114" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-    </row>
-    <row r="114" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="13" t="s">
-        <v>198</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-    </row>
-    <row r="115" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="13" t="s">
-        <v>198</v>
+      <c r="C114" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D114" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E114" s="25"/>
+    </row>
+    <row r="115" spans="1:5" ht="45" customHeight="1">
+      <c r="A115" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C115" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-    </row>
-    <row r="116" spans="1:5" ht="132" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B116" s="8" t="s">
+      <c r="C115" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D115" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E115" s="26"/>
+    </row>
+    <row r="116" spans="1:5" ht="45" customHeight="1">
+      <c r="A116" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D116" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E116" s="26"/>
+    </row>
+    <row r="117" spans="1:5" ht="180" customHeight="1">
+      <c r="A117" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-    </row>
-    <row r="117" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B117" s="6" t="s">
+      <c r="C117" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D117" s="40"/>
+      <c r="E117" s="26"/>
+    </row>
+    <row r="118" spans="1:5" ht="180" customHeight="1">
+      <c r="A118" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B118" s="6"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="26"/>
+    </row>
+    <row r="119" spans="1:5" ht="259.5" customHeight="1">
+      <c r="A119" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="B119" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-    </row>
-    <row r="118" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B118" s="6" t="s">
+      <c r="C119" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-    </row>
-    <row r="119" spans="1:5" ht="149.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B119" s="8" t="s">
+      <c r="D119" s="40"/>
+      <c r="E119" s="26"/>
+    </row>
+    <row r="120" spans="1:5" ht="105" customHeight="1">
+      <c r="A120" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-    </row>
-    <row r="120" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B120" s="6" t="s">
+      <c r="C120" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-    </row>
-    <row r="121" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="13" t="s">
-        <v>198</v>
+      <c r="D120" s="40"/>
+      <c r="E120" s="26"/>
+    </row>
+    <row r="121" spans="1:5" ht="50.25" customHeight="1">
+      <c r="A121" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-    </row>
-    <row r="122" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="13" t="s">
-        <v>198</v>
+      <c r="C121" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D121" s="40"/>
+      <c r="E121" s="26"/>
+    </row>
+    <row r="122" spans="1:5" ht="50.25" customHeight="1">
+      <c r="A122" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C122" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-    </row>
-    <row r="123" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="13" t="s">
-        <v>198</v>
+      <c r="C122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" s="40"/>
+      <c r="E122" s="26"/>
+    </row>
+    <row r="123" spans="1:5" ht="255.75" customHeight="1">
+      <c r="A123" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-    </row>
-    <row r="124" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B124" s="6" t="s">
+      <c r="C123" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D123" s="40"/>
+      <c r="E123" s="26"/>
+    </row>
+    <row r="124" spans="1:5" ht="100.5" customHeight="1">
+      <c r="A124" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B124" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-    </row>
-    <row r="125" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B125" s="6" t="s">
+      <c r="D124" s="40"/>
+      <c r="E124" s="26"/>
+    </row>
+    <row r="125" spans="1:5" ht="50.25" customHeight="1">
+      <c r="A125" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B125" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-    </row>
-    <row r="126" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="13" t="s">
-        <v>198</v>
+      <c r="D125" s="40"/>
+      <c r="E125" s="26"/>
+    </row>
+    <row r="126" spans="1:5" ht="75" customHeight="1">
+      <c r="A126" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-    </row>
-    <row r="127" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B127" s="6" t="s">
+      <c r="D126" s="40"/>
+      <c r="E126" s="26"/>
+    </row>
+    <row r="127" spans="1:5" ht="81.75" customHeight="1">
+      <c r="A127" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-    </row>
-    <row r="128" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="13" t="s">
-        <v>198</v>
+      <c r="D127" s="40"/>
+      <c r="E127" s="26"/>
+    </row>
+    <row r="128" spans="1:5" ht="30" customHeight="1">
+      <c r="A128" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-    </row>
-    <row r="129" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="B129" s="10" t="s">
+      <c r="C128" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D128" s="40"/>
+      <c r="E128" s="26"/>
+    </row>
+    <row r="129" spans="1:5" ht="30" customHeight="1">
+      <c r="A129" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C129" s="16" t="s">
+      <c r="C129" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D129" s="40"/>
+      <c r="E129" s="26"/>
+    </row>
+    <row r="130" spans="1:5" ht="30" customHeight="1">
+      <c r="A130" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-    </row>
-    <row r="130" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="18" t="s">
+      <c r="C130" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D130" s="40"/>
+      <c r="E130" s="26"/>
+    </row>
+    <row r="131" spans="1:5" ht="30" customHeight="1">
+      <c r="A131" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B130" s="19" t="s">
+      <c r="C131" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D131" s="40"/>
+      <c r="E131" s="26"/>
+    </row>
+    <row r="132" spans="1:5" ht="180" customHeight="1">
+      <c r="A132" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C130" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D130" s="21"/>
-      <c r="E130" s="21"/>
-    </row>
-    <row r="131" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="B131" s="19" t="s">
+      <c r="C132" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D132" s="40"/>
+      <c r="E132" s="26"/>
+    </row>
+    <row r="133" spans="1:5" ht="180" customHeight="1">
+      <c r="A133" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C131" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D131" s="21"/>
-      <c r="E131" s="21"/>
-    </row>
-    <row r="132" spans="1:5" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="B132" s="22" t="s">
+      <c r="C133" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D133" s="40"/>
+      <c r="E133" s="26"/>
+    </row>
+    <row r="134" spans="1:5" ht="30" customHeight="1">
+      <c r="A134" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C132" s="20" t="s">
+      <c r="C134" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D132" s="21"/>
-      <c r="E132" s="21"/>
-    </row>
-    <row r="133" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="B133" s="22" t="s">
+      <c r="D134" s="40"/>
+      <c r="E134" s="26"/>
+    </row>
+    <row r="135" spans="1:5" ht="30" customHeight="1">
+      <c r="A135" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C133" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21"/>
-    </row>
-    <row r="134" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="18" t="s">
+      <c r="C135" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B134" s="22" t="s">
+      <c r="D135" s="40"/>
+      <c r="E135" s="26"/>
+    </row>
+    <row r="136" spans="1:5" ht="30" customHeight="1">
+      <c r="A136" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C134" s="20" t="s">
+      <c r="C136" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D134" s="21"/>
-      <c r="E134" s="21"/>
-    </row>
-    <row r="135" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="18" t="s">
+      <c r="D136" s="40"/>
+      <c r="E136" s="26"/>
+    </row>
+    <row r="137" spans="1:5" ht="30" customHeight="1">
+      <c r="A137" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B135" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="C135" s="20" t="s">
+      <c r="D137" s="40"/>
+      <c r="E137" s="26"/>
+    </row>
+    <row r="138" spans="1:5" ht="42.75" customHeight="1">
+      <c r="A138" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D135" s="21"/>
-      <c r="E135" s="21"/>
-    </row>
-    <row r="136" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="B136" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="C136" s="20" t="s">
+      <c r="D138" s="40"/>
+      <c r="E138" s="26"/>
+    </row>
+    <row r="139" spans="1:5" ht="132" customHeight="1">
+      <c r="A139" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D136" s="21"/>
-      <c r="E136" s="21"/>
-    </row>
-    <row r="137" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="B137" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="C137" s="20" t="s">
+      <c r="D139" s="40"/>
+      <c r="E139" s="26"/>
+    </row>
+    <row r="140" spans="1:5" ht="30" customHeight="1">
+      <c r="A140" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D140" s="40"/>
+      <c r="E140" s="26"/>
+    </row>
+    <row r="141" spans="1:5" ht="30" customHeight="1">
+      <c r="A141" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D141" s="40"/>
+      <c r="E141" s="26"/>
+    </row>
+    <row r="142" spans="1:5" ht="149.25" customHeight="1">
+      <c r="A142" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D142" s="40"/>
+      <c r="E142" s="26"/>
+    </row>
+    <row r="143" spans="1:5" ht="30" customHeight="1">
+      <c r="A143" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D143" s="40"/>
+      <c r="E143" s="26"/>
+    </row>
+    <row r="144" spans="1:5" ht="30" customHeight="1">
+      <c r="A144" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D144" s="40"/>
+      <c r="E144" s="26"/>
+    </row>
+    <row r="145" spans="1:5" ht="105" customHeight="1">
+      <c r="A145" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D145" s="40"/>
+      <c r="E145" s="26"/>
+    </row>
+    <row r="146" spans="1:5" ht="105" customHeight="1">
+      <c r="A146" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D146" s="40"/>
+      <c r="E146" s="26"/>
+    </row>
+    <row r="147" spans="1:5" ht="90" customHeight="1">
+      <c r="A147" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D147" s="40"/>
+      <c r="E147" s="26"/>
+    </row>
+    <row r="148" spans="1:5" ht="60" customHeight="1">
+      <c r="A148" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D148" s="40"/>
+      <c r="E148" s="26"/>
+    </row>
+    <row r="149" spans="1:5" ht="60" customHeight="1">
+      <c r="A149" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D149" s="40"/>
+      <c r="E149" s="26"/>
+    </row>
+    <row r="150" spans="1:5" ht="60" customHeight="1">
+      <c r="A150" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D150" s="40"/>
+      <c r="E150" s="26"/>
+    </row>
+    <row r="151" spans="1:5" ht="60" customHeight="1">
+      <c r="A151" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D151" s="40"/>
+      <c r="E151" s="26"/>
+    </row>
+    <row r="152" spans="1:5" ht="90" customHeight="1">
+      <c r="A152" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D152" s="41"/>
+      <c r="E152" s="27"/>
+    </row>
+    <row r="153" spans="1:5" ht="87.75" customHeight="1">
+      <c r="A153" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D153" s="42"/>
+      <c r="E153" s="28"/>
+    </row>
+    <row r="154" spans="1:5" ht="109.5" customHeight="1">
+      <c r="A154" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B154" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D154" s="42"/>
+      <c r="E154" s="28"/>
+    </row>
+    <row r="155" spans="1:5" ht="103.5" customHeight="1">
+      <c r="A155" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C155" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D155" s="42"/>
+      <c r="E155" s="28"/>
+    </row>
+    <row r="156" spans="1:5" ht="164.25" customHeight="1">
+      <c r="A156" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B156" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D156" s="42"/>
+      <c r="E156" s="28"/>
+    </row>
+    <row r="157" spans="1:5" ht="164.25" customHeight="1">
+      <c r="A157" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B157" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D157" s="42"/>
+      <c r="E157" s="28"/>
+    </row>
+    <row r="158" spans="1:5" ht="164.25" customHeight="1">
+      <c r="A158" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B158" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D158" s="42"/>
+      <c r="E158" s="28"/>
+    </row>
+    <row r="159" spans="1:5" ht="164.25" customHeight="1">
+      <c r="A159" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B159" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D159" s="42"/>
+      <c r="E159" s="28"/>
+    </row>
+    <row r="160" spans="1:5" ht="164.25" customHeight="1">
+      <c r="A160" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B160" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D160" s="42"/>
+      <c r="E160" s="28"/>
+    </row>
+    <row r="161" spans="1:6" ht="164.25" customHeight="1">
+      <c r="A161" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B161" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D161" s="42"/>
+      <c r="E161" s="28"/>
+    </row>
+    <row r="162" spans="1:6" ht="164.25" customHeight="1">
+      <c r="A162" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B162" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D162" s="42"/>
+      <c r="E162" s="28"/>
+    </row>
+    <row r="163" spans="1:6" ht="164.25" customHeight="1">
+      <c r="A163" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B163" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C163" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D163" s="42"/>
+      <c r="E163" s="28"/>
+    </row>
+    <row r="164" spans="1:6" ht="164.25" customHeight="1">
+      <c r="A164" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B164" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C164" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D164" s="42"/>
+      <c r="E164" s="28"/>
+    </row>
+    <row r="165" spans="1:6" ht="164.25" customHeight="1">
+      <c r="A165" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B165" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C165" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D165" s="42"/>
+      <c r="E165" s="28"/>
+    </row>
+    <row r="166" spans="1:6" ht="164.25" customHeight="1">
+      <c r="A166" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B166" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C166" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D166" s="42"/>
+      <c r="E166" s="28"/>
+    </row>
+    <row r="167" spans="1:6" ht="164.25" customHeight="1">
+      <c r="A167" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B167" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C167" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D167" s="42"/>
+      <c r="E167" s="28"/>
+    </row>
+    <row r="168" spans="1:6" ht="164.25" customHeight="1">
+      <c r="A168" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B168" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C168" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D168" s="42"/>
+      <c r="E168" s="28"/>
+    </row>
+    <row r="169" spans="1:6" ht="164.25" customHeight="1">
+      <c r="A169" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B169" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="D137" s="21"/>
-      <c r="E137" s="21"/>
-    </row>
-    <row r="138" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="B138" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="D138" s="21"/>
-      <c r="E138" s="21"/>
+      <c r="C169" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D169" s="42"/>
+      <c r="E169" s="29"/>
+    </row>
+    <row r="170" spans="1:6" ht="164.25" customHeight="1">
+      <c r="A170" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B170" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C170" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D170" s="43"/>
+      <c r="E170" s="30"/>
+      <c r="F170" s="22"/>
+    </row>
+    <row r="171" spans="1:6" ht="164.25" customHeight="1">
+      <c r="A171" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C171" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D171" s="43"/>
+      <c r="E171" s="31"/>
+      <c r="F171" s="22"/>
+    </row>
+    <row r="172" spans="1:6" ht="164.25" customHeight="1">
+      <c r="A172" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B172" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C172" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D172" s="44"/>
+      <c r="E172" s="30"/>
+      <c r="F172" s="22"/>
+    </row>
+    <row r="173" spans="1:6" ht="120" customHeight="1">
+      <c r="A173" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B173" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C173" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D173" s="45"/>
+      <c r="E173" s="32"/>
+      <c r="F173" s="22"/>
+    </row>
+    <row r="174" spans="1:6" ht="120" customHeight="1">
+      <c r="A174" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B174" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C174" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="D174" s="46"/>
+      <c r="E174" s="33"/>
+      <c r="F174" s="22"/>
+    </row>
+    <row r="175" spans="1:6" ht="120" customHeight="1">
+      <c r="A175" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B175" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C175" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D175" s="45"/>
+      <c r="E175" s="34"/>
+      <c r="F175" s="22"/>
+    </row>
+    <row r="176" spans="1:6" ht="120" customHeight="1">
+      <c r="A176" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B176" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C176" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D176" s="47"/>
+      <c r="E176" s="35"/>
+      <c r="F176" s="22"/>
+    </row>
+    <row r="177" spans="1:6" ht="120" customHeight="1">
+      <c r="A177" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B177" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C177" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="D177" s="47"/>
+      <c r="E177" s="32"/>
+      <c r="F177" s="22"/>
+    </row>
+    <row r="178" spans="1:6" ht="120" customHeight="1">
+      <c r="A178" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B178" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C178" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="D178" s="48"/>
+      <c r="E178" s="30"/>
+      <c r="F178" s="22"/>
+    </row>
+    <row r="179" spans="1:6" ht="15" customHeight="1">
+      <c r="A179" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B179" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C179" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D179" s="49"/>
+      <c r="E179" s="36"/>
+      <c r="F179" s="22"/>
+    </row>
+    <row r="180" spans="1:6" ht="15" customHeight="1">
+      <c r="D180" s="22"/>
+      <c r="E180" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E34" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E35" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E71" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E72" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E73" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E75" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Data/BaselineCC.xlsx
+++ b/Data/BaselineCC.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24223"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3600A282-A045-A045-9F2E-A5168C0F362F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F14C42-BA54-5E42-AA56-CB62D4F4E1ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40660" yWindow="-2520" windowWidth="21240" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2480" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="245">
   <si>
     <t>Domain</t>
   </si>
@@ -46,38 +35,6 @@
   </si>
   <si>
     <t>Source Link</t>
-  </si>
-  <si>
-    <t>Embedded Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please confirm the following information is correct.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">• First Name [text entry]
-• Last Name [text entry]
-• Email [text entry]
-• Phone Number [text entry]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Month [text entry]
-• Day [text entry]
-• Year [text entry]
-</t>
-  </si>
-  <si>
-    <t>Referral Question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is your relationship to the person/group who referred you?   </t>
-  </si>
-  <si>
-    <t>• I provide childcare for their child(ren)  
-• I received the link from a family member/friend (who I do not provide childcare for)
-• Link was posted on social media (e.g., Facebook)  
-• My employer sent me an invitation  
-• Other, please specify: [text entry]</t>
   </si>
   <si>
     <t>DEMO (Non-Childcare)</t>
@@ -263,63 +220,6 @@
 •  Other, please describe: [Free text] [Select frequency 0-20]</t>
   </si>
   <si>
-    <t>Vaccine Module (Non-childcare)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How likely are you to get the first generation COVID-19 vaccine, as soon as it's available?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Already received   
-• Very likely  
-• Somewhat likely  
-• Not very likely   
-• Not at all likely   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have you received the COVID-19 vaccine? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why have you not yet received the COVID-19 vaccine? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">• I am not eligible yet, based on my age, type of job, etc.  (1) 
-• I am eligible but I haven’t gotten vaccinated because I have not been able to get an appointment  (2) 
-• I am eligible but I haven’t gotten vaccinated because I don’t know how to get an appointment to get vaccinated  (3) 
-• I am eligible but I haven’t gotten vaccinated because I can’t get to a vaccination site due to where I live, time off from work, etc.  (4) 
-• I am eligible but I haven’t gotten vaccinated because I am planning to “wait and see” the vaccine is safe and effective  (5) 
-• I am eligible but I haven’t gotten vaccinated because I do not believe the vaccine is safe/effective  (6) 
-• Other, please specify  (7) </t>
-  </si>
-  <si>
-    <t>Have your feelings about getting the COVID-19 vaccine changed since it became available?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• I’m more likely to get it than I was at first  (1) 
-• No change in my overall feelings  (0) 
-• I’m less likely to get it than I was at first  (2) 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you have become less likely to get the vaccine than you originally were, what are your reasons? Select all that apply. </t>
-  </si>
-  <si>
-    <t>• I have heard from friends/relatives that it is unsafe  (1) 
-• I have heard from TV or the internet that it is unsafe  (2) 
-• I no longer think I need it  (3) 
-• Other, please specify  (4)[free response]</t>
-  </si>
-  <si>
-    <t>If you have become more likely to get the vaccine than you were at first, what are your reasons? Select all that apply.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• I learned more about the effectiveness of it from TV or the news  (1) 
-• I learned more about the safety of it from TV or the news  (2) 
-• My friends/family convinced me it was safe and/or effective  (3) 
-• I want be able to do things that only vaccinated people can do  (4) 
-• Other, please specify  (5) </t>
-  </si>
-  <si>
     <t>COVID-19 (Non-Childcare)</t>
   </si>
   <si>
@@ -822,104 +722,6 @@
 </t>
   </si>
   <si>
-    <t>STIMULUS MODULE (Non-Childcare)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Did you receive the first federal stimulus check (max $1200 per independent adult) from April 2020?
- (Also known as an economic impact payment)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Yes, I received the first federal stimulus check   
-• No, but I expect to receive the first federal stimulus check in the near future  
-• No, and I DO NOT expect to receive the first federal stimulus check   
-• Unsure if I will receive the first federal stimulus check   
-• Other, please describe (text entry)
-</t>
-  </si>
-  <si>
-    <t>What did you and your household spend the first federal stimulus check in 2020 on? Select all that apply.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•  Food
-•  Clothing
-•  Household supplies and personal care
-•  Household items (TV, electronics, furniture, appliances)
-•  Recreational goods (sports and fitness equipment, bicycles, toys, games)
-•  Rent  
-•  Mortgage  
-•  Utilities and telecommunications  
-•  Vehicle payments  
-•  Paying down credit card, student loans, or other debts  
-• Charitable donations or giving to family members  
-•  Savings or other investments  
-•  Other, please describe [Free text]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please indicate how much you agree with the following statement: 
-"Without the first federal stimulus check in 2020, I could not have paid for basic needs."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Very inaccurate  
-•Somewhat inaccurate  
-•Slightly inaccurate   
-•Slightly accurate  
-•Somewhat accurate  
-•Very accurate  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In what ways was the first federal stimulus check in 2020 helpful? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Did you receive the second federal stimulus check (max $600 per independent adult) from Winter 2020-2021?
- (Also known as an economic impact payment)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Yes, I received the second federal stimulus check   
-• No, but I expect to receive the second federal stimulus check in the near future  
-• No, and I DO NOT expect to receive the second federal stimulus check   
-• Unsure if I will receive the second federal stimulus check   
-• Other, please describe (text entry)
-</t>
-  </si>
-  <si>
-    <t>What did you and your household spend the second federal stimulus check in 2020 on? Select all that apply.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please indicate how much you agree with the following statement: 
-"Without the second federal stimulus check in winter 2020-2021, I could not have paid for basic needs."
-</t>
-  </si>
-  <si>
-    <t>In what ways was the second federal stimulus check in winter 2020-2021, helpful? </t>
-  </si>
-  <si>
-    <t>Did you receive the $600 unemployment bonus/benefit related to COVID-19 in the past year?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Yes, I received the COVID-19 $600 unemployment bonus  
-•No, but I expect to receive the COVID-19 $600 unemployment bonus in the near future   
-•No, and I DO NOT expect to receive the $600 unemployment bonus 
-•Unsure if I will receive the $600 unemployment bonus   
-•Other, please describe;  (text entry)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What did you and your household spend your $600 unemployment bonus/benefit related to COVID-19 on? Select all that apply. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please indicate how much you agree with the following statement: 
-"Without the 600 unemployment bonus/benefit from related to COVID-19, I could not have paid for basic needs."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In what ways was the 600 unemployment bonus/benefit from related to COVID-19 helpful? </t>
-  </si>
-  <si>
     <t>OPEN ENDED (Non-Childcare)</t>
   </si>
   <si>
@@ -933,24 +735,6 @@
   </si>
   <si>
     <t>What would you like your elected officials or other policymakers (for example, U.S. Congress, state and local leaders) to know about how your family is doing or what you need during this time?</t>
-  </si>
-  <si>
-    <t>Attention Checks</t>
-  </si>
-  <si>
-    <t>What year is 6 years from now?</t>
-  </si>
-  <si>
-    <t>What year is 3 years from now?</t>
-  </si>
-  <si>
-    <t>What year was 10 years ago?</t>
-  </si>
-  <si>
-    <t>What year is 15 years from now? </t>
-  </si>
-  <si>
-    <t>What is the second month of the year? </t>
   </si>
   <si>
     <t>DEMO (Childcare)</t>
@@ -968,6 +752,15 @@
 •Other (please specify) [text entry] </t>
   </si>
   <si>
+    <t>Do you spend time in the classroom(s) providing direct care to children in the program?</t>
+  </si>
+  <si>
+    <t>In an average week, how many hours do you spend in the classroom(s) providing direct care to children in the program?</t>
+  </si>
+  <si>
+    <t>[Single Select from &lt;5 hours per week to More than 60 hours per week]</t>
+  </si>
+  <si>
     <t>If you provide childcare for a family member, friend, or neighbor, what is your relationship with the parents/guardians of the children in your care? Select all that apply. </t>
   </si>
   <si>
@@ -1043,6 +836,27 @@
   </si>
   <si>
     <t xml:space="preserve"> In a typical week, how many children do you provide care for in each age range? 12-18 years old   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In a typical week, how many children do you provide care for in each age range? Birth-11 months  old </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In a typical week, how many children do you provide care for in each age range? 1 year old </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In a typical week, how many children do you provide care for in each age range? 2 years old </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In a typical week, how many children do you provide care for in each age range? 3 years old </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In a typical week, how many children do you provide care for in each age range? 4 years old </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In a typical week, how many children do you provide care for in each age range? 5 years old </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In a typical week, how many children do you provide care for in each age range? 12-18 years old</t>
   </si>
   <si>
     <t>Which language is spoken when you are providing care?</t>
@@ -1158,6 +972,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> providing childcare or your childcare business </t>
     </r>
@@ -1166,6 +981,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>if you were required to take at least 2 weeks of sick leave?</t>
     </r>
@@ -1190,6 +1006,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t> the coronavirus (COVID-19) pandemic, how often did you talk with a parent about something happening in the child’s family (for example child-parent relationships, stresses like parent’s finances and employment; family tensions)</t>
     </r>
@@ -1288,65 +1105,12 @@
   <si>
     <t>Is it okay to share your comments in our research communications? We will not use your name or any other identifiable information!</t>
   </si>
-  <si>
-    <t>Survey Experience</t>
-  </si>
-  <si>
-    <t>In the past 12 months, have you been invited to take another survey or surveys about your role as a childcare provider?</t>
-  </si>
-  <si>
-    <t>•Yes  
-•No  
-•Not sure/can't remember</t>
-  </si>
-  <si>
-    <t>In the past 12 months, how many surveys related to your role as a childcare provider have you taken?</t>
-  </si>
-  <si>
-    <t>Single select between 0 to 10</t>
-  </si>
-  <si>
-    <t>How would you rate your overall experience taking this survey?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Very bad
-•Somewhat bad
-•Somewhat good
-•Very good
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please indicate how much you agree with each of the following statements:                                                        This survey was easy for me to take </t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Strongly disagree
-•Disagree
-•Agree
-•Strongly agree
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please indicate how much you agree with each of the following statements:                                                              I would be likely to recommend another childcare provider take this survey </t>
-  </si>
-  <si>
-    <t>Text Consent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Would you like to receive invitations to our follow-up surveys through text message in addition to/instead of email? 
- If you select yes, you will receive up to 2 text messages per survey invitation. One initial invitation and one reminder. Msg &amp; Data rates may apply. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Yes  
-•No  
-</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1357,25 +1121,29 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1400,8 +1168,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1486,15 +1260,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1529,19 +1294,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1560,59 +1312,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1631,7 +1335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1642,9 +1346,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1691,11 +1392,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1713,28 +1411,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1753,30 +1441,44 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2938,24 +2640,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2968,39 +2670,39 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="108" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-    </row>
-    <row r="3" spans="1:5" ht="108" customHeight="1">
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-    </row>
-    <row r="4" spans="1:5" ht="104.25" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
@@ -3008,2339 +2710,2054 @@
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+    </row>
+    <row r="6" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-    </row>
-    <row r="7" spans="1:5" ht="135" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:5" ht="135" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" spans="1:5" ht="134.25" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-    </row>
-    <row r="10" spans="1:5" ht="67.5" customHeight="1">
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-    </row>
-    <row r="11" spans="1:5" ht="90" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-    </row>
-    <row r="12" spans="1:5" ht="180" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-    </row>
-    <row r="15" spans="1:5" ht="135" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-    </row>
-    <row r="16" spans="1:5" ht="135" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" ht="225" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-    </row>
-    <row r="17" spans="1:5" ht="135" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-    </row>
-    <row r="18" spans="1:5" ht="75" customHeight="1">
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:5" ht="232.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-    </row>
-    <row r="19" spans="1:5" ht="45" customHeight="1">
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="1:5" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="1:5" ht="225" customHeight="1">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-    </row>
-    <row r="21" spans="1:5" ht="232.5" customHeight="1">
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+    </row>
+    <row r="21" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-    </row>
-    <row r="22" spans="1:5" ht="179.25" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+    </row>
+    <row r="23" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-    </row>
-    <row r="23" spans="1:5" ht="90" customHeight="1">
-      <c r="A23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-    </row>
-    <row r="24" spans="1:5" ht="90" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-    </row>
-    <row r="25" spans="1:5" ht="90" customHeight="1">
-      <c r="A25" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+    </row>
+    <row r="28" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-    </row>
-    <row r="26" spans="1:5" ht="90" customHeight="1">
-      <c r="A26" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+    </row>
+    <row r="29" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C29" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-    </row>
-    <row r="27" spans="1:5" ht="90" customHeight="1">
-      <c r="A27" s="2" t="s">
+      <c r="E29" s="31"/>
+    </row>
+    <row r="30" spans="1:5" ht="225" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="D30" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-    </row>
-    <row r="28" spans="1:5" ht="75" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="E30" s="31"/>
+    </row>
+    <row r="31" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-    </row>
-    <row r="29" spans="1:5" ht="105" customHeight="1">
-      <c r="A29" s="2" t="s">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+    </row>
+    <row r="33" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-    </row>
-    <row r="30" spans="1:5" ht="105" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+    </row>
+    <row r="34" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-    </row>
-    <row r="31" spans="1:5" ht="105" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="C34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-    </row>
-    <row r="32" spans="1:5" ht="105" customHeight="1">
-      <c r="A32" s="8" t="s">
+      <c r="C35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+    </row>
+    <row r="36" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+    </row>
+    <row r="37" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-    </row>
-    <row r="33" spans="1:5" ht="105" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-    </row>
-    <row r="34" spans="1:5" ht="105" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-    </row>
-    <row r="35" spans="1:5" ht="105" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-    </row>
-    <row r="36" spans="1:5" ht="105" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-    </row>
-    <row r="37" spans="1:5" ht="105" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-    </row>
-    <row r="38" spans="1:5" ht="105" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="10" t="s">
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+    </row>
+    <row r="38" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+    </row>
+    <row r="39" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+    </row>
+    <row r="40" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+    </row>
+    <row r="41" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="50" t="s">
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+    </row>
+    <row r="42" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="37"/>
-    </row>
-    <row r="39" spans="1:5" ht="225" customHeight="1">
-      <c r="A39" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="12" t="s">
+      <c r="C42" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+    </row>
+    <row r="43" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="50" t="s">
+      <c r="C43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+    </row>
+    <row r="44" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="37"/>
-    </row>
-    <row r="40" spans="1:5" ht="75" customHeight="1">
-      <c r="A40" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="C44" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+    </row>
+    <row r="45" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C45" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+    </row>
+    <row r="46" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-    </row>
-    <row r="41" spans="1:5" ht="135" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="C46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+    </row>
+    <row r="47" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-    </row>
-    <row r="42" spans="1:5" ht="135" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="6" t="s">
+      <c r="C47" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+    </row>
+    <row r="48" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+    </row>
+    <row r="49" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-    </row>
-    <row r="43" spans="1:5" ht="135" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="6" t="s">
+      <c r="C49" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+    </row>
+    <row r="50" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-    </row>
-    <row r="44" spans="1:5" ht="135" customHeight="1">
-      <c r="A44" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="6" t="s">
+      <c r="C50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+    </row>
+    <row r="51" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-    </row>
-    <row r="45" spans="1:5" ht="75" customHeight="1">
-      <c r="A45" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="6" t="s">
+      <c r="C51" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+    </row>
+    <row r="52" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-    </row>
-    <row r="46" spans="1:5" ht="75" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="6" t="s">
+      <c r="C52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+    </row>
+    <row r="53" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="B53" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-    </row>
-    <row r="47" spans="1:5" ht="75" customHeight="1">
-      <c r="A47" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="6" t="s">
+      <c r="C53" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-    </row>
-    <row r="48" spans="1:5" ht="75" customHeight="1">
-      <c r="A48" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="6" t="s">
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+    </row>
+    <row r="54" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-    </row>
-    <row r="49" spans="1:5" ht="75" customHeight="1">
-      <c r="A49" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="6" t="s">
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C55" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+    </row>
+    <row r="56" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-    </row>
-    <row r="50" spans="1:5" ht="75" customHeight="1">
-      <c r="A50" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+    </row>
+    <row r="57" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-    </row>
-    <row r="51" spans="1:5" ht="75" customHeight="1">
-      <c r="A51" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="6" t="s">
+      <c r="C57" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-    </row>
-    <row r="52" spans="1:5" ht="75" customHeight="1">
-      <c r="A52" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="6" t="s">
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+    </row>
+    <row r="58" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-    </row>
-    <row r="53" spans="1:5" ht="75" customHeight="1">
-      <c r="A53" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="C58" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-    </row>
-    <row r="54" spans="1:5" ht="75" customHeight="1">
-      <c r="A54" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="6" t="s">
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+    </row>
+    <row r="59" spans="1:5" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-    </row>
-    <row r="55" spans="1:5" ht="75" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" s="6" t="s">
+      <c r="C59" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-    </row>
-    <row r="56" spans="1:5" ht="75" customHeight="1">
-      <c r="A56" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" s="6" t="s">
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+    </row>
+    <row r="60" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-    </row>
-    <row r="57" spans="1:5" ht="75" customHeight="1">
-      <c r="A57" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="6" t="s">
+      <c r="C60" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-    </row>
-    <row r="58" spans="1:5" ht="75" customHeight="1">
-      <c r="A58" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="6" t="s">
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+    </row>
+    <row r="61" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-    </row>
-    <row r="59" spans="1:5" ht="75" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" s="6" t="s">
+      <c r="C61" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-    </row>
-    <row r="60" spans="1:5" ht="75" customHeight="1">
-      <c r="A60" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="6" t="s">
+      <c r="E61" s="32"/>
+    </row>
+    <row r="62" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-    </row>
-    <row r="61" spans="1:5" ht="165" customHeight="1">
-      <c r="A61" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="6" t="s">
+      <c r="C62" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-    </row>
-    <row r="62" spans="1:5" ht="64.5" customHeight="1">
-      <c r="A62" s="2" t="s">
+      <c r="D62" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="E62" s="32"/>
+    </row>
+    <row r="63" spans="1:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-    </row>
-    <row r="63" spans="1:5" ht="135" customHeight="1">
-      <c r="A63" s="2" t="s">
+      <c r="D63" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="E63" s="32"/>
+    </row>
+    <row r="64" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-    </row>
-    <row r="64" spans="1:5" ht="30" customHeight="1">
-      <c r="A64" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-    </row>
-    <row r="65" spans="1:5" ht="90" customHeight="1">
+      <c r="D64" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="32"/>
+    </row>
+    <row r="65" spans="1:5" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B65" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-    </row>
-    <row r="66" spans="1:5" ht="135" customHeight="1">
+      <c r="D65" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" s="32"/>
+    </row>
+    <row r="66" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B66" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>111</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-    </row>
-    <row r="67" spans="1:5" ht="135" customHeight="1">
+      <c r="D66" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B67" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="31"/>
+      <c r="E67" s="22"/>
+    </row>
+    <row r="68" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="31"/>
+      <c r="E68" s="22"/>
+    </row>
+    <row r="69" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" s="31"/>
+      <c r="E69" s="22"/>
+    </row>
+    <row r="70" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" s="31"/>
+      <c r="E70" s="22"/>
+    </row>
+    <row r="71" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="31"/>
+      <c r="E71" s="22"/>
+    </row>
+    <row r="72" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="31"/>
+      <c r="E72" s="22"/>
+    </row>
+    <row r="73" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" s="31"/>
+      <c r="E73" s="22"/>
+    </row>
+    <row r="74" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" s="31"/>
+      <c r="E74" s="22"/>
+    </row>
+    <row r="75" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D75" s="31"/>
+      <c r="E75" s="22"/>
+    </row>
+    <row r="76" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D76" s="31"/>
+      <c r="E76" s="22"/>
+    </row>
+    <row r="77" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" s="31"/>
+      <c r="E77" s="22"/>
+    </row>
+    <row r="78" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" s="31"/>
+      <c r="E78" s="22"/>
+    </row>
+    <row r="79" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79" s="31"/>
+      <c r="E79" s="22"/>
+    </row>
+    <row r="80" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D80" s="31"/>
+      <c r="E80" s="22"/>
+    </row>
+    <row r="81" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D81" s="31"/>
+      <c r="E81" s="22"/>
+    </row>
+    <row r="82" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" s="31"/>
+      <c r="E82" s="22"/>
+    </row>
+    <row r="83" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D83" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-    </row>
-    <row r="68" spans="1:5" ht="142.5" customHeight="1">
-      <c r="A68" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B68" s="6" t="s">
+      <c r="E83" s="22"/>
+    </row>
+    <row r="84" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D84" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="E84" s="22"/>
+    </row>
+    <row r="85" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D85" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E85" s="23"/>
+    </row>
+    <row r="86" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D86" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E86" s="23"/>
+    </row>
+    <row r="87" spans="1:5" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D87" s="32"/>
+      <c r="E87" s="23"/>
+    </row>
+    <row r="88" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D88" s="32"/>
+      <c r="E88" s="23"/>
+    </row>
+    <row r="89" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E89" s="23"/>
+    </row>
+    <row r="90" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D90" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" s="23"/>
+    </row>
+    <row r="91" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D91" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E91" s="23"/>
+    </row>
+    <row r="92" spans="1:5" ht="259.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D92" s="34"/>
+      <c r="E92" s="24"/>
+    </row>
+    <row r="93" spans="1:5" ht="259.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="34"/>
+      <c r="E93" s="24"/>
+    </row>
+    <row r="94" spans="1:5" ht="259.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" s="34"/>
+      <c r="E94" s="24"/>
+    </row>
+    <row r="95" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95" s="34"/>
+      <c r="E95" s="24"/>
+    </row>
+    <row r="96" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D96" s="34"/>
+      <c r="E96" s="24"/>
+    </row>
+    <row r="97" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="34"/>
+      <c r="E97" s="24"/>
+    </row>
+    <row r="98" spans="1:5" ht="255.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D98" s="34"/>
+      <c r="E98" s="24"/>
+    </row>
+    <row r="99" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D99" s="34"/>
+      <c r="E99" s="24"/>
+    </row>
+    <row r="100" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D100" s="34"/>
+      <c r="E100" s="24"/>
+    </row>
+    <row r="101" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D101" s="34"/>
+      <c r="E101" s="24"/>
+    </row>
+    <row r="102" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D102" s="34"/>
+      <c r="E102" s="24"/>
+    </row>
+    <row r="103" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B103" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C103" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D103" s="45"/>
+      <c r="E103" s="46"/>
+    </row>
+    <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B104" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C104" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D104" s="45"/>
+      <c r="E104" s="46"/>
+    </row>
+    <row r="105" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B105" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D105" s="45"/>
+      <c r="E105" s="46"/>
+    </row>
+    <row r="106" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C106" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D106" s="45"/>
+      <c r="E106" s="46"/>
+    </row>
+    <row r="107" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B107" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C107" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D107" s="45"/>
+      <c r="E107" s="46"/>
+    </row>
+    <row r="108" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B108" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="C108" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D108" s="34"/>
+      <c r="E108" s="24"/>
+    </row>
+    <row r="109" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B109" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="C109" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D109" s="34"/>
+      <c r="E109" s="24"/>
+    </row>
+    <row r="110" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B110" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C110" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D110" s="34"/>
+      <c r="E110" s="24"/>
+    </row>
+    <row r="111" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B111" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="C111" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D111" s="34"/>
+      <c r="E111" s="24"/>
+    </row>
+    <row r="112" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B112" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C112" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D112" s="34"/>
+      <c r="E112" s="24"/>
+    </row>
+    <row r="113" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B113" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C113" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D113" s="34"/>
+      <c r="E113" s="24"/>
+    </row>
+    <row r="114" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B114" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C114" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D114" s="34"/>
+      <c r="E114" s="24"/>
+    </row>
+    <row r="115" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B115" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="C115" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D115" s="34"/>
+      <c r="E115" s="24"/>
+    </row>
+    <row r="116" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B116" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C116" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D116" s="34"/>
+      <c r="E116" s="24"/>
+    </row>
+    <row r="117" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B117" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="C117" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D117" s="34"/>
+      <c r="E117" s="24"/>
+    </row>
+    <row r="118" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" s="34"/>
+      <c r="E118" s="24"/>
+    </row>
+    <row r="119" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D119" s="34"/>
+      <c r="E119" s="24"/>
+    </row>
+    <row r="120" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B120" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C120" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="D120" s="45"/>
+      <c r="E120" s="46"/>
+    </row>
+    <row r="121" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B121" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C121" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="D121" s="45"/>
+      <c r="E121" s="46"/>
+    </row>
+    <row r="122" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B122" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C122" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="D122" s="45"/>
+      <c r="E122" s="46"/>
+    </row>
+    <row r="123" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-    </row>
-    <row r="69" spans="1:5" ht="105" customHeight="1">
-      <c r="A69" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-    </row>
-    <row r="70" spans="1:5" ht="120.75" customHeight="1">
-      <c r="A70" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D70" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="E70" s="38"/>
-    </row>
-    <row r="71" spans="1:5" ht="75" customHeight="1">
-      <c r="A71" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D71" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="E71" s="38"/>
-    </row>
-    <row r="72" spans="1:5" ht="92.25" customHeight="1">
-      <c r="A72" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B72" s="6" t="s">
+      <c r="B123" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D123" s="34"/>
+      <c r="E123" s="24"/>
+    </row>
+    <row r="124" spans="1:5" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D124" s="34"/>
+      <c r="E124" s="24"/>
+    </row>
+    <row r="125" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D125" s="34"/>
+      <c r="E125" s="24"/>
+    </row>
+    <row r="126" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D126" s="34"/>
+      <c r="E126" s="24"/>
+    </row>
+    <row r="127" spans="1:5" ht="149.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D127" s="34"/>
+      <c r="E127" s="24"/>
+    </row>
+    <row r="128" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D72" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="E72" s="38"/>
-    </row>
-    <row r="73" spans="1:5" ht="105" customHeight="1">
-      <c r="A73" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D73" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="E73" s="38"/>
-    </row>
-    <row r="74" spans="1:5" ht="195" customHeight="1">
-      <c r="A74" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74" s="4" t="s">
+      <c r="C128" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D128" s="34"/>
+      <c r="E128" s="24"/>
+    </row>
+    <row r="129" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D129" s="34"/>
+      <c r="E129" s="24"/>
+    </row>
+    <row r="130" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D130" s="34"/>
+      <c r="E130" s="24"/>
+    </row>
+    <row r="131" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D131" s="34"/>
+      <c r="E131" s="24"/>
+    </row>
+    <row r="132" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D132" s="34"/>
+      <c r="E132" s="24"/>
+    </row>
+    <row r="133" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D74" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="E74" s="38"/>
-    </row>
-    <row r="75" spans="1:5" ht="120" customHeight="1">
-      <c r="A75" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C75" s="4" t="s">
+      <c r="C133" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D133" s="34"/>
+      <c r="E133" s="24"/>
+    </row>
+    <row r="134" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B134" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D75" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="E75" s="51" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="120" customHeight="1">
-      <c r="A76" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="24"/>
-    </row>
-    <row r="77" spans="1:5" ht="120" customHeight="1">
-      <c r="A77" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" s="37"/>
-      <c r="E77" s="24"/>
-    </row>
-    <row r="78" spans="1:5" ht="120" customHeight="1">
-      <c r="A78" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B78" s="7" t="s">
+      <c r="C134" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D134" s="34"/>
+      <c r="E134" s="24"/>
+    </row>
+    <row r="135" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D135" s="34"/>
+      <c r="E135" s="24"/>
+    </row>
+    <row r="136" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D136" s="34"/>
+      <c r="E136" s="24"/>
+    </row>
+    <row r="137" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D78" s="37"/>
-      <c r="E78" s="24"/>
-    </row>
-    <row r="79" spans="1:5" ht="120" customHeight="1">
-      <c r="A79" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D79" s="37"/>
-      <c r="E79" s="24"/>
-    </row>
-    <row r="80" spans="1:5" ht="120" customHeight="1">
-      <c r="A80" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" s="37"/>
-      <c r="E80" s="24"/>
-    </row>
-    <row r="81" spans="1:5" ht="120" customHeight="1">
-      <c r="A81" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" s="37"/>
-      <c r="E81" s="24"/>
-    </row>
-    <row r="82" spans="1:5" ht="120" customHeight="1">
-      <c r="A82" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D82" s="37"/>
-      <c r="E82" s="24"/>
-    </row>
-    <row r="83" spans="1:5" ht="120" customHeight="1">
-      <c r="A83" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="24"/>
-    </row>
-    <row r="84" spans="1:5" ht="120" customHeight="1">
-      <c r="A84" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="24"/>
-    </row>
-    <row r="85" spans="1:5" ht="120" customHeight="1">
-      <c r="A85" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="24"/>
-    </row>
-    <row r="86" spans="1:5" ht="120" customHeight="1">
-      <c r="A86" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D86" s="37"/>
-      <c r="E86" s="24"/>
-    </row>
-    <row r="87" spans="1:5" ht="120" customHeight="1">
-      <c r="A87" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D87" s="37"/>
-      <c r="E87" s="24"/>
-    </row>
-    <row r="88" spans="1:5" ht="120" customHeight="1">
-      <c r="A88" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D88" s="37"/>
-      <c r="E88" s="24"/>
-    </row>
-    <row r="89" spans="1:5" ht="120" customHeight="1">
-      <c r="A89" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C89" s="4" t="s">
+      <c r="C137" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D137" s="35"/>
+      <c r="E137" s="25"/>
+    </row>
+    <row r="138" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D138" s="36"/>
+      <c r="E138" s="26"/>
+    </row>
+    <row r="139" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D139" s="36"/>
+      <c r="E139" s="26"/>
+    </row>
+    <row r="140" spans="1:5" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B140" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D140" s="36"/>
+      <c r="E140" s="26"/>
+    </row>
+    <row r="141" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D141" s="36"/>
+      <c r="E141" s="26"/>
+    </row>
+    <row r="142" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D142" s="36"/>
+      <c r="E142" s="26"/>
+    </row>
+    <row r="143" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D143" s="36"/>
+      <c r="E143" s="26"/>
+    </row>
+    <row r="144" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D144" s="36"/>
+      <c r="E144" s="26"/>
+    </row>
+    <row r="145" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D145" s="36"/>
+      <c r="E145" s="26"/>
+    </row>
+    <row r="146" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D146" s="36"/>
+      <c r="E146" s="26"/>
+    </row>
+    <row r="147" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D147" s="36"/>
+      <c r="E147" s="26"/>
+    </row>
+    <row r="148" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D148" s="36"/>
+      <c r="E148" s="26"/>
+    </row>
+    <row r="149" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D149" s="36"/>
+      <c r="E149" s="26"/>
+    </row>
+    <row r="150" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D150" s="36"/>
+      <c r="E150" s="26"/>
+    </row>
+    <row r="151" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D151" s="36"/>
+      <c r="E151" s="26"/>
+    </row>
+    <row r="152" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D89" s="37"/>
-      <c r="E89" s="24"/>
-    </row>
-    <row r="90" spans="1:5" ht="120" customHeight="1">
-      <c r="A90" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B90" s="7" t="s">
+      <c r="B152" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D90" s="37"/>
-      <c r="E90" s="24"/>
-    </row>
-    <row r="91" spans="1:5" ht="120" customHeight="1">
-      <c r="A91" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C91" s="4" t="s">
+      <c r="C152" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D152" s="36"/>
+      <c r="E152" s="26"/>
+    </row>
+    <row r="153" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D91" s="37"/>
-      <c r="E91" s="24"/>
-    </row>
-    <row r="92" spans="1:5" ht="120" customHeight="1">
-      <c r="A92" s="2" t="s">
+      <c r="C153" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D153" s="36"/>
+      <c r="E153" s="26"/>
+    </row>
+    <row r="154" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D92" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="E92" s="24"/>
-    </row>
-    <row r="93" spans="1:5" ht="60" customHeight="1">
-      <c r="A93" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D93" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="E93" s="24"/>
-    </row>
-    <row r="94" spans="1:5" ht="120" customHeight="1">
-      <c r="A94" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D94" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="E94" s="25"/>
-    </row>
-    <row r="95" spans="1:5" ht="150" customHeight="1">
-      <c r="A95" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D95" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="E95" s="25"/>
-    </row>
-    <row r="96" spans="1:5" ht="240" customHeight="1">
-      <c r="A96" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D96" s="38"/>
-      <c r="E96" s="25"/>
-    </row>
-    <row r="97" spans="1:5" ht="135" customHeight="1">
-      <c r="A97" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D97" s="38"/>
-      <c r="E97" s="25"/>
-    </row>
-    <row r="98" spans="1:5" ht="60" customHeight="1">
-      <c r="A98" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D98" s="38"/>
-      <c r="E98" s="25"/>
-    </row>
-    <row r="99" spans="1:5" ht="240" customHeight="1">
-      <c r="A99" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D99" s="38"/>
-      <c r="E99" s="25"/>
-    </row>
-    <row r="100" spans="1:5" ht="113.25" customHeight="1">
-      <c r="A100" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D100" s="38"/>
-      <c r="E100" s="25"/>
-    </row>
-    <row r="101" spans="1:5" ht="135" customHeight="1">
-      <c r="A101" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="38"/>
-      <c r="E101" s="25"/>
-    </row>
-    <row r="102" spans="1:5" ht="118.5" customHeight="1">
-      <c r="A102" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D102" s="38"/>
-      <c r="E102" s="25"/>
-    </row>
-    <row r="103" spans="1:5" ht="213.75" customHeight="1">
-      <c r="A103" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D103" s="38"/>
-      <c r="E103" s="25"/>
-    </row>
-    <row r="104" spans="1:5" ht="102.75" customHeight="1">
-      <c r="A104" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D104" s="38"/>
-      <c r="E104" s="25"/>
-    </row>
-    <row r="105" spans="1:5" ht="150" customHeight="1">
-      <c r="A105" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" s="38"/>
-      <c r="E105" s="25"/>
-    </row>
-    <row r="106" spans="1:5" ht="106.5" customHeight="1">
-      <c r="A106" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D106" s="38"/>
-      <c r="E106" s="25"/>
-    </row>
-    <row r="107" spans="1:5" ht="210.75" customHeight="1">
-      <c r="A107" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D107" s="38"/>
-      <c r="E107" s="25"/>
-    </row>
-    <row r="108" spans="1:5" ht="121.5" customHeight="1">
-      <c r="A108" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D108" s="38"/>
-      <c r="E108" s="25"/>
-    </row>
-    <row r="109" spans="1:5" ht="45" customHeight="1">
-      <c r="A109" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="E109" s="25"/>
-    </row>
-    <row r="110" spans="1:5" ht="45" customHeight="1">
-      <c r="A110" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D110" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="E110" s="25"/>
-    </row>
-    <row r="111" spans="1:5" ht="57" customHeight="1">
-      <c r="A111" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D111" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="E111" s="25"/>
-    </row>
-    <row r="112" spans="1:5" ht="45" customHeight="1">
-      <c r="A112" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D112" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="E112" s="25"/>
-    </row>
-    <row r="113" spans="1:5" ht="45" customHeight="1">
-      <c r="A113" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B113" s="6" t="s">
+      <c r="C154" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D154" s="36"/>
+      <c r="E154" s="27"/>
+    </row>
+    <row r="155" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D155" s="37"/>
+      <c r="E155" s="28"/>
+      <c r="F155" s="20"/>
+    </row>
+    <row r="156" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B156" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D156" s="37"/>
+      <c r="E156" s="29"/>
+      <c r="F156" s="20"/>
+    </row>
+    <row r="157" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D157" s="38"/>
+      <c r="E157" s="28"/>
+      <c r="F157" s="20"/>
+    </row>
+    <row r="158" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B158" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C158" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D113" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="E113" s="25"/>
-    </row>
-    <row r="114" spans="1:5" ht="45" customHeight="1">
-      <c r="A114" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D114" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="E114" s="25"/>
-    </row>
-    <row r="115" spans="1:5" ht="45" customHeight="1">
-      <c r="A115" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D115" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="E115" s="26"/>
-    </row>
-    <row r="116" spans="1:5" ht="45" customHeight="1">
-      <c r="A116" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D116" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="E116" s="26"/>
-    </row>
-    <row r="117" spans="1:5" ht="180" customHeight="1">
-      <c r="A117" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D117" s="40"/>
-      <c r="E117" s="26"/>
-    </row>
-    <row r="118" spans="1:5" ht="180" customHeight="1">
-      <c r="A118" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B118" s="6"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="40"/>
-      <c r="E118" s="26"/>
-    </row>
-    <row r="119" spans="1:5" ht="259.5" customHeight="1">
-      <c r="A119" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D119" s="40"/>
-      <c r="E119" s="26"/>
-    </row>
-    <row r="120" spans="1:5" ht="105" customHeight="1">
-      <c r="A120" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D120" s="40"/>
-      <c r="E120" s="26"/>
-    </row>
-    <row r="121" spans="1:5" ht="50.25" customHeight="1">
-      <c r="A121" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D121" s="40"/>
-      <c r="E121" s="26"/>
-    </row>
-    <row r="122" spans="1:5" ht="50.25" customHeight="1">
-      <c r="A122" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D122" s="40"/>
-      <c r="E122" s="26"/>
-    </row>
-    <row r="123" spans="1:5" ht="255.75" customHeight="1">
-      <c r="A123" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D123" s="40"/>
-      <c r="E123" s="26"/>
-    </row>
-    <row r="124" spans="1:5" ht="100.5" customHeight="1">
-      <c r="A124" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D124" s="40"/>
-      <c r="E124" s="26"/>
-    </row>
-    <row r="125" spans="1:5" ht="50.25" customHeight="1">
-      <c r="A125" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D125" s="40"/>
-      <c r="E125" s="26"/>
-    </row>
-    <row r="126" spans="1:5" ht="75" customHeight="1">
-      <c r="A126" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D126" s="40"/>
-      <c r="E126" s="26"/>
-    </row>
-    <row r="127" spans="1:5" ht="81.75" customHeight="1">
-      <c r="A127" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D127" s="40"/>
-      <c r="E127" s="26"/>
-    </row>
-    <row r="128" spans="1:5" ht="30" customHeight="1">
-      <c r="A128" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D128" s="40"/>
-      <c r="E128" s="26"/>
-    </row>
-    <row r="129" spans="1:5" ht="30" customHeight="1">
-      <c r="A129" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D129" s="40"/>
-      <c r="E129" s="26"/>
-    </row>
-    <row r="130" spans="1:5" ht="30" customHeight="1">
-      <c r="A130" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D130" s="40"/>
-      <c r="E130" s="26"/>
-    </row>
-    <row r="131" spans="1:5" ht="30" customHeight="1">
-      <c r="A131" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D131" s="40"/>
-      <c r="E131" s="26"/>
-    </row>
-    <row r="132" spans="1:5" ht="180" customHeight="1">
-      <c r="A132" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D132" s="40"/>
-      <c r="E132" s="26"/>
-    </row>
-    <row r="133" spans="1:5" ht="180" customHeight="1">
-      <c r="A133" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D133" s="40"/>
-      <c r="E133" s="26"/>
-    </row>
-    <row r="134" spans="1:5" ht="30" customHeight="1">
-      <c r="A134" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D134" s="40"/>
-      <c r="E134" s="26"/>
-    </row>
-    <row r="135" spans="1:5" ht="30" customHeight="1">
-      <c r="A135" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D135" s="40"/>
-      <c r="E135" s="26"/>
-    </row>
-    <row r="136" spans="1:5" ht="30" customHeight="1">
-      <c r="A136" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D136" s="40"/>
-      <c r="E136" s="26"/>
-    </row>
-    <row r="137" spans="1:5" ht="30" customHeight="1">
-      <c r="A137" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D137" s="40"/>
-      <c r="E137" s="26"/>
-    </row>
-    <row r="138" spans="1:5" ht="42.75" customHeight="1">
-      <c r="A138" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D138" s="40"/>
-      <c r="E138" s="26"/>
-    </row>
-    <row r="139" spans="1:5" ht="132" customHeight="1">
-      <c r="A139" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D139" s="40"/>
-      <c r="E139" s="26"/>
-    </row>
-    <row r="140" spans="1:5" ht="30" customHeight="1">
-      <c r="A140" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D140" s="40"/>
-      <c r="E140" s="26"/>
-    </row>
-    <row r="141" spans="1:5" ht="30" customHeight="1">
-      <c r="A141" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D141" s="40"/>
-      <c r="E141" s="26"/>
-    </row>
-    <row r="142" spans="1:5" ht="149.25" customHeight="1">
-      <c r="A142" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D142" s="40"/>
-      <c r="E142" s="26"/>
-    </row>
-    <row r="143" spans="1:5" ht="30" customHeight="1">
-      <c r="A143" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D143" s="40"/>
-      <c r="E143" s="26"/>
-    </row>
-    <row r="144" spans="1:5" ht="30" customHeight="1">
-      <c r="A144" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D144" s="40"/>
-      <c r="E144" s="26"/>
-    </row>
-    <row r="145" spans="1:5" ht="105" customHeight="1">
-      <c r="A145" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D145" s="40"/>
-      <c r="E145" s="26"/>
-    </row>
-    <row r="146" spans="1:5" ht="105" customHeight="1">
-      <c r="A146" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D146" s="40"/>
-      <c r="E146" s="26"/>
-    </row>
-    <row r="147" spans="1:5" ht="90" customHeight="1">
-      <c r="A147" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D147" s="40"/>
-      <c r="E147" s="26"/>
-    </row>
-    <row r="148" spans="1:5" ht="60" customHeight="1">
-      <c r="A148" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D148" s="40"/>
-      <c r="E148" s="26"/>
-    </row>
-    <row r="149" spans="1:5" ht="60" customHeight="1">
-      <c r="A149" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D149" s="40"/>
-      <c r="E149" s="26"/>
-    </row>
-    <row r="150" spans="1:5" ht="60" customHeight="1">
-      <c r="A150" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D150" s="40"/>
-      <c r="E150" s="26"/>
-    </row>
-    <row r="151" spans="1:5" ht="60" customHeight="1">
-      <c r="A151" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D151" s="40"/>
-      <c r="E151" s="26"/>
-    </row>
-    <row r="152" spans="1:5" ht="90" customHeight="1">
-      <c r="A152" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D152" s="41"/>
-      <c r="E152" s="27"/>
-    </row>
-    <row r="153" spans="1:5" ht="87.75" customHeight="1">
-      <c r="A153" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C153" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="D153" s="42"/>
-      <c r="E153" s="28"/>
-    </row>
-    <row r="154" spans="1:5" ht="109.5" customHeight="1">
-      <c r="A154" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B154" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="C154" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="D154" s="42"/>
-      <c r="E154" s="28"/>
-    </row>
-    <row r="155" spans="1:5" ht="103.5" customHeight="1">
-      <c r="A155" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B155" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="C155" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="D155" s="42"/>
-      <c r="E155" s="28"/>
-    </row>
-    <row r="156" spans="1:5" ht="164.25" customHeight="1">
-      <c r="A156" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B156" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="C156" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="D156" s="42"/>
-      <c r="E156" s="28"/>
-    </row>
-    <row r="157" spans="1:5" ht="164.25" customHeight="1">
-      <c r="A157" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B157" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C157" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="D157" s="42"/>
-      <c r="E157" s="28"/>
-    </row>
-    <row r="158" spans="1:5" ht="164.25" customHeight="1">
-      <c r="A158" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B158" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C158" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D158" s="42"/>
-      <c r="E158" s="28"/>
-    </row>
-    <row r="159" spans="1:5" ht="164.25" customHeight="1">
-      <c r="A159" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B159" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="C159" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D159" s="42"/>
-      <c r="E159" s="28"/>
-    </row>
-    <row r="160" spans="1:5" ht="164.25" customHeight="1">
-      <c r="A160" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B160" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="C160" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D160" s="42"/>
-      <c r="E160" s="28"/>
-    </row>
-    <row r="161" spans="1:6" ht="164.25" customHeight="1">
-      <c r="A161" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B161" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="C161" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D161" s="42"/>
-      <c r="E161" s="28"/>
-    </row>
-    <row r="162" spans="1:6" ht="164.25" customHeight="1">
-      <c r="A162" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B162" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="C162" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D162" s="42"/>
-      <c r="E162" s="28"/>
-    </row>
-    <row r="163" spans="1:6" ht="164.25" customHeight="1">
-      <c r="A163" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B163" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="C163" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D163" s="42"/>
-      <c r="E163" s="28"/>
-    </row>
-    <row r="164" spans="1:6" ht="164.25" customHeight="1">
-      <c r="A164" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B164" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C164" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D164" s="42"/>
-      <c r="E164" s="28"/>
-    </row>
-    <row r="165" spans="1:6" ht="164.25" customHeight="1">
-      <c r="A165" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B165" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="C165" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="D165" s="42"/>
-      <c r="E165" s="28"/>
-    </row>
-    <row r="166" spans="1:6" ht="164.25" customHeight="1">
-      <c r="A166" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B166" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="C166" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="D166" s="42"/>
-      <c r="E166" s="28"/>
-    </row>
-    <row r="167" spans="1:6" ht="164.25" customHeight="1">
-      <c r="A167" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="B167" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C167" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="D167" s="42"/>
-      <c r="E167" s="28"/>
-    </row>
-    <row r="168" spans="1:6" ht="164.25" customHeight="1">
-      <c r="A168" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="B168" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C168" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="D168" s="42"/>
-      <c r="E168" s="28"/>
-    </row>
-    <row r="169" spans="1:6" ht="164.25" customHeight="1">
-      <c r="A169" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="B169" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="C169" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="D169" s="42"/>
-      <c r="E169" s="29"/>
-    </row>
-    <row r="170" spans="1:6" ht="164.25" customHeight="1">
-      <c r="A170" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="B170" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="C170" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="D170" s="43"/>
-      <c r="E170" s="30"/>
-      <c r="F170" s="22"/>
-    </row>
-    <row r="171" spans="1:6" ht="164.25" customHeight="1">
-      <c r="A171" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="B171" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="C171" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="D171" s="43"/>
-      <c r="E171" s="31"/>
-      <c r="F171" s="22"/>
-    </row>
-    <row r="172" spans="1:6" ht="164.25" customHeight="1">
-      <c r="A172" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="B172" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="C172" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="D172" s="44"/>
-      <c r="E172" s="30"/>
-      <c r="F172" s="22"/>
-    </row>
-    <row r="173" spans="1:6" ht="120" customHeight="1">
-      <c r="A173" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="B173" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="C173" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="D173" s="45"/>
-      <c r="E173" s="32"/>
-      <c r="F173" s="22"/>
-    </row>
-    <row r="174" spans="1:6" ht="120" customHeight="1">
-      <c r="A174" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="B174" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="C174" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="D174" s="46"/>
-      <c r="E174" s="33"/>
-      <c r="F174" s="22"/>
-    </row>
-    <row r="175" spans="1:6" ht="120" customHeight="1">
-      <c r="A175" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="B175" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="C175" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="D175" s="45"/>
-      <c r="E175" s="34"/>
-      <c r="F175" s="22"/>
-    </row>
-    <row r="176" spans="1:6" ht="120" customHeight="1">
-      <c r="A176" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="B176" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="C176" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="D176" s="47"/>
-      <c r="E176" s="35"/>
-      <c r="F176" s="22"/>
-    </row>
-    <row r="177" spans="1:6" ht="120" customHeight="1">
-      <c r="A177" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="B177" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="C177" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="D177" s="47"/>
-      <c r="E177" s="32"/>
-      <c r="F177" s="22"/>
-    </row>
-    <row r="178" spans="1:6" ht="120" customHeight="1">
-      <c r="A178" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="B178" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="C178" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="D178" s="48"/>
-      <c r="E178" s="30"/>
-      <c r="F178" s="22"/>
-    </row>
-    <row r="179" spans="1:6" ht="15" customHeight="1">
-      <c r="A179" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="B179" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="C179" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="D179" s="49"/>
-      <c r="E179" s="36"/>
-      <c r="F179" s="22"/>
-    </row>
-    <row r="180" spans="1:6" ht="15" customHeight="1">
-      <c r="D180" s="22"/>
-      <c r="E180" s="22"/>
+      <c r="D158" s="39"/>
+      <c r="E158" s="30"/>
+      <c r="F158" s="20"/>
+    </row>
+    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D159" s="20"/>
+      <c r="E159" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E75" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E66" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Data/BaselineCC.xlsx
+++ b/Data/BaselineCC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F14C42-BA54-5E42-AA56-CB62D4F4E1ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A3F69C-86CB-3948-B86E-D0D4283D3B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="294">
   <si>
     <t>Domain</t>
   </si>
@@ -1105,12 +1105,345 @@
   <si>
     <t>Is it okay to share your comments in our research communications? We will not use your name or any other identifiable information!</t>
   </si>
+  <si>
+    <t>U.S. Census</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAPID Team Modified from U.S. Census </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Census
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.census.gov/acs/www/about/why-we-ask-each-question/sex/?sec_ak_reference=18.28e8d93f.1590627222.663bae5 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.census2020now.org/faces-blog/same-sex-households-2020-census-r3976</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.census.gov/acs/www/about/why-we-ask-each-question/language/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.census.gov/acs/www/about/why-we-ask-each-question/citizenship/</t>
+    </r>
+  </si>
+  <si>
+    <t>RAPID Team Modified from Pew Study</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.pewresearch.org/hispanic/2004/03/19/generational-differences/</t>
+    </r>
+  </si>
+  <si>
+    <t>National Survey of Early Care and Education (NSECE) 2012 (Page 89 of NSECE User Guide)</t>
+  </si>
+  <si>
+    <t>RAPID Team Modified from NHIS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.cdc.gov/nchs/nhis/health_insurance/hi_content.htm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.pewresearch.org/fact-tank/2020/05/26/few-u-s-adults-say-theyve-been-diagnosed-with-coronavirus-but-more-than-a-quarter-know-someone-who-has/</t>
+    </r>
+  </si>
+  <si>
+    <t>RAPID Team  Modified
+GAD-2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.hiv.uw.edu/page/mental-health-screening/gad-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.hiv.uw.edu/page/mental-health-screening/phq-2 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.jstor.org/stable/pdf/40967322.pdf?casa_token=8BWrXEu4O5QAAAAA:v8l4I7NHebQhvvF9b3K6MeP2aY_Xf8VjkTWWTVui01iBUeyvscZB_ZVwMHB64Ioj05dyOmqzjTgI3OgJ7Hmz7uoXrbpAV6hT_9r6-a45miUEoP5vQSA</t>
+    </r>
+  </si>
+  <si>
+    <t>RAPID Team Modified
+PSI-4-SF</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.parinc.com/Products/Pkey/335</t>
+    </r>
+  </si>
+  <si>
+    <t>RAPID Team Modified
+PSOC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://researchingparents.wordpress.com/2013/02/15/parenting-sense-of-competence-psoc/</t>
+    </r>
+  </si>
+  <si>
+    <t>NIH Toolbox Item Bank v2.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.healthmeasures.net/index.php?option=com_instruments&amp;view=measure&amp;id=660</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.healthmeasures.net/index.php?option=com_instruments&amp;view=measure&amp;id=660 </t>
+    </r>
+  </si>
+  <si>
+    <t>National Survey of Early Care and Education (NSECE) 2012 (Page 111 of NSECE User Guide)</t>
+  </si>
+  <si>
+    <t>RAPID Team Modified from National Survey of Early Care and Education (NSECE) 2012 (Page 111 of NSECE User Guide)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.census.gov/acs/www/about/why-we-ask-each-question/income/#:~:text=We%20ask%20questions%20about%20the,assistance%20for%20populations%20in%20need.</t>
+    </r>
+  </si>
+  <si>
+    <t>RAPID Team Modified from "https://www.umass.edu/lrrc/sites/default/files/Western%20Mass%20Essential%20Worker%20Survey%20-%20May%202020.pdf
+Guidance on the Essential Critical Infrastructure Workforce. (2020, March 19). Retrieved April 30, 2020, from https://www.cisa.gov/publication/guidance-essential-critical-infrastructure-workforce"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALP survey conducted May 1-6, 2020 
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.rand.org/pubs/research_reports/RRA308-3.html  </t>
+    </r>
+  </si>
+  <si>
+    <t>RAPID Team Modified from National Survey of Early Care and Education (NSECE) 2012 (Page 109 of NSECE User Guide)</t>
+  </si>
+  <si>
+    <t>Developed by ther RAPID Team based on the Packard Foundation's Essential Practices for Home-Based Caregivers and Proviers</t>
+  </si>
+  <si>
+    <t>RAPID Team Developed</t>
+  </si>
+  <si>
+    <t>RAPID Team Modified from National Compensation Survey</t>
+  </si>
+  <si>
+    <t>RAPID Modified from Child Care Aware of America</t>
+  </si>
+  <si>
+    <t>https://www.childcareaware.org/families/types-child-care/</t>
+  </si>
+  <si>
+    <r>
+      <t>If you currently provide childcare for a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF32363A"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>family member, friend, or neighbor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF32363A"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>, what is your relationship with the parents/guardians of the children in your care? Select all that apply. </t>
+    </r>
+  </si>
+  <si>
+    <t>•Family   
+• Friend 
+• Neighbor
+• Other, please specify:</t>
+  </si>
+  <si>
+    <t>• In my home
+• In the child's home
+• Other, please specify:</t>
+  </si>
+  <si>
+    <t>Survey Experience</t>
+  </si>
+  <si>
+    <t>In the past 12 months, have you been invited to take another survey or surveys about your role as a childcare provider?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Yes  
+•No  
+•Not sure/can't remember
+</t>
+  </si>
+  <si>
+    <t>Select between 1-10</t>
+  </si>
+  <si>
+    <t>[Display this question if "In the past 12 months, have you been invited to take another survey or surveys about your role as a childcare provider?" = Yes] In the past 12 months, how many surveys related to your role as a childcare provider have you taken?</t>
+  </si>
+  <si>
+    <t>How would you rate your overall experience taking this survey?</t>
+  </si>
+  <si>
+    <t>•Very bad  
+•Bad 
+•Somewhat good
+•Very good</t>
+  </si>
+  <si>
+    <t>Please indicate how much you agree with each of the following statements:                                                             •This survey was easy for me to take 
+•I would be likely to recommend another childcare provider take this survey</t>
+  </si>
+  <si>
+    <t>•Strongly disagree
+•Disagree
+•Agree
+•Strongly agree</t>
+  </si>
+  <si>
+    <t>What do you want federal and/or state officials that oversee funding for child care providers to know?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1142,8 +1475,54 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF201F1E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF32363A"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF32363A"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1154,12 +1533,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1175,42 +1548,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1220,28 +1558,9 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1260,25 +1579,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1287,197 +1591,116 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2640,10 +2863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F159"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B171" sqref="B171"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="141" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2657,2107 +2880,2739 @@
     <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-    </row>
-    <row r="5" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="D5" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-    </row>
-    <row r="7" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="D6" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-    </row>
-    <row r="8" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-    </row>
-    <row r="9" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="D9" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="D10" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-    </row>
-    <row r="12" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="D11" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-    </row>
-    <row r="13" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="D12" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="D13" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="D14" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-    </row>
-    <row r="16" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="D15" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-    </row>
-    <row r="17" spans="1:5" ht="225" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="D16" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="225" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-    </row>
-    <row r="18" spans="1:5" ht="232.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="D17" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="232.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-    </row>
-    <row r="19" spans="1:5" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="D18" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="D19" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-    </row>
-    <row r="21" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="D20" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-    </row>
-    <row r="22" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="D21" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-    </row>
-    <row r="23" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="D22" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-    </row>
-    <row r="24" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="D23" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-    </row>
-    <row r="25" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="D24" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-    </row>
-    <row r="26" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="D25" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-    </row>
-    <row r="27" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="D26" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-    </row>
-    <row r="28" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="D27" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-    </row>
-    <row r="29" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="D28" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="31"/>
-    </row>
-    <row r="30" spans="1:5" ht="225" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="E29" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" ht="225" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="31"/>
-    </row>
-    <row r="31" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="E30" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-    </row>
-    <row r="32" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="D31" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-    </row>
-    <row r="33" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="D32" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-    </row>
-    <row r="34" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="D33" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-    </row>
-    <row r="35" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="D34" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-    </row>
-    <row r="36" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="D35" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-    </row>
-    <row r="37" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="D36" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-    </row>
-    <row r="38" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="D37" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-    </row>
-    <row r="39" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+      <c r="D38" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-    </row>
-    <row r="40" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="D39" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-    </row>
-    <row r="41" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+      <c r="D40" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-    </row>
-    <row r="42" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+      <c r="D41" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-    </row>
-    <row r="43" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="D42" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-    </row>
-    <row r="44" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="D43" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-    </row>
-    <row r="45" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+      <c r="D44" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-    </row>
-    <row r="46" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="D45" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-    </row>
-    <row r="47" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="D46" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E46" s="21"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-    </row>
-    <row r="48" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
+      <c r="D47" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E47" s="21"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-    </row>
-    <row r="49" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="D48" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E48" s="21"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-    </row>
-    <row r="50" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+      <c r="D49" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-    </row>
-    <row r="51" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="D50" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E50" s="21"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-    </row>
-    <row r="52" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
+      <c r="D51" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E51" s="21"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-    </row>
-    <row r="53" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="D52" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E52" s="21"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-    </row>
-    <row r="54" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="D53" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-    </row>
-    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="D54" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E54" s="24"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-    </row>
-    <row r="56" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="D55" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-    </row>
-    <row r="57" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="D56" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E56" s="21"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-    </row>
-    <row r="58" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="D57" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="6" t="s">
         <v>94</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-    </row>
-    <row r="59" spans="1:5" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="D58" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E58" s="24"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-    </row>
-    <row r="60" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="D59" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E59" s="24"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-    </row>
-    <row r="61" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="D60" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E60" s="24"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="6" t="s">
         <v>100</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D61" s="40" t="s">
+      <c r="D61" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E61" s="32"/>
-    </row>
-    <row r="62" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="E61" s="21"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="6" t="s">
         <v>102</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="40" t="s">
+      <c r="D62" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E62" s="32"/>
-    </row>
-    <row r="63" spans="1:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="E62" s="21"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D63" s="40" t="s">
+      <c r="D63" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E63" s="32"/>
-    </row>
-    <row r="64" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="E63" s="21"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="40" t="s">
+      <c r="D64" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="E64" s="32"/>
-    </row>
-    <row r="65" spans="1:5" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="E64" s="21"/>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:6" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D65" s="40" t="s">
+      <c r="D65" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E65" s="32"/>
-    </row>
-    <row r="66" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="E65" s="21"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="D66" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E66" s="41" t="s">
+      <c r="E66" s="28" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="31"/>
-      <c r="E67" s="22"/>
-    </row>
-    <row r="68" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+      <c r="D67" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="E67" s="30"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="31"/>
-      <c r="E68" s="22"/>
-    </row>
-    <row r="69" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+      <c r="D68" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="E68" s="30"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="22"/>
-    </row>
-    <row r="70" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+      <c r="D69" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="E69" s="30"/>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>120</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="22"/>
-    </row>
-    <row r="71" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+      <c r="D70" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="E70" s="30"/>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>122</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="31"/>
-      <c r="E71" s="22"/>
-    </row>
-    <row r="72" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+      <c r="D71" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E71" s="31"/>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>123</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="31"/>
-      <c r="E72" s="22"/>
-    </row>
-    <row r="73" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+      <c r="D72" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E72" s="31"/>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>124</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D73" s="31"/>
-      <c r="E73" s="22"/>
-    </row>
-    <row r="74" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+      <c r="D73" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E73" s="31"/>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>125</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="22"/>
-    </row>
-    <row r="75" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+      <c r="D74" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E74" s="31"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>126</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="22"/>
-    </row>
-    <row r="76" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+      <c r="D75" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E75" s="31"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D76" s="31"/>
-      <c r="E76" s="22"/>
-    </row>
-    <row r="77" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+      <c r="D76" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E76" s="31"/>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="5" t="s">
         <v>129</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D77" s="31"/>
-      <c r="E77" s="22"/>
-    </row>
-    <row r="78" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+      <c r="D77" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E77" s="31"/>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="5" t="s">
         <v>131</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="22"/>
-    </row>
-    <row r="79" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+      <c r="D78" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E78" s="31"/>
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>133</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="22"/>
-    </row>
-    <row r="80" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="D79" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="E79" s="30"/>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>135</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D80" s="31"/>
-      <c r="E80" s="22"/>
-    </row>
-    <row r="81" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+      <c r="D80" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E80" s="30"/>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D81" s="31"/>
-      <c r="E81" s="22"/>
-    </row>
-    <row r="82" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+      <c r="D81" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E81" s="30"/>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D82" s="31"/>
-      <c r="E82" s="22"/>
-    </row>
-    <row r="83" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+      <c r="D82" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E82" s="30"/>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="6" t="s">
         <v>141</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D83" s="40" t="s">
+      <c r="D83" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E83" s="22"/>
-    </row>
-    <row r="84" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+      <c r="E83" s="30"/>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="6" t="s">
         <v>143</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D84" s="40" t="s">
+      <c r="D84" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="E84" s="22"/>
-    </row>
-    <row r="85" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+      <c r="E84" s="30"/>
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="6" t="s">
         <v>147</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D85" s="40" t="s">
+      <c r="D85" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E85" s="23"/>
-    </row>
-    <row r="86" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+      <c r="E85" s="32"/>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="6" t="s">
         <v>149</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D86" s="40" t="s">
+      <c r="D86" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E86" s="23"/>
-    </row>
-    <row r="87" spans="1:5" ht="240" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+      <c r="E86" s="32"/>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="6" t="s">
         <v>151</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D87" s="32"/>
-      <c r="E87" s="23"/>
-    </row>
-    <row r="88" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+      <c r="D87" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E87" s="32"/>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D88" s="32"/>
-      <c r="E88" s="23"/>
-    </row>
-    <row r="89" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+      <c r="D88" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="6" t="s">
         <v>156</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D89" s="40" t="s">
+      <c r="D89" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E89" s="23"/>
-    </row>
-    <row r="90" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+      <c r="E89" s="32"/>
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="6" t="s">
         <v>158</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D90" s="40" t="s">
+      <c r="D90" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E90" s="23"/>
-    </row>
-    <row r="91" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+      <c r="E90" s="32"/>
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="6" t="s">
         <v>159</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D91" s="40" t="s">
+      <c r="D91" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E91" s="23"/>
-    </row>
-    <row r="92" spans="1:5" ht="259.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+      <c r="E91" s="32"/>
+      <c r="F91" s="7"/>
+    </row>
+    <row r="92" spans="1:6" s="7" customFormat="1" ht="259.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="6" t="s">
         <v>161</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D92" s="34"/>
-      <c r="E92" s="24"/>
-    </row>
-    <row r="93" spans="1:5" ht="259.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+      <c r="D92" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="16" customFormat="1" ht="259.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E93" s="12"/>
+      <c r="F93" s="17"/>
+    </row>
+    <row r="94" spans="1:6" s="16" customFormat="1" ht="259.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E94" s="12"/>
+      <c r="F94" s="17"/>
+    </row>
+    <row r="95" spans="1:6" s="7" customFormat="1" ht="259.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="34"/>
-      <c r="E93" s="24"/>
-    </row>
-    <row r="94" spans="1:5" ht="259.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+      <c r="D95" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E95" s="8"/>
+    </row>
+    <row r="96" spans="1:6" ht="259.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B96" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C96" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D94" s="34"/>
-      <c r="E94" s="24"/>
-    </row>
-    <row r="95" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+      <c r="D96" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B97" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C97" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D95" s="34"/>
-      <c r="E95" s="24"/>
-    </row>
-    <row r="96" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+      <c r="D97" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E97" s="8"/>
+      <c r="F97" s="7"/>
+    </row>
+    <row r="98" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B98" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D96" s="34"/>
-      <c r="E96" s="24"/>
-    </row>
-    <row r="97" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+      <c r="D98" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E98" s="8"/>
+      <c r="F98" s="7"/>
+    </row>
+    <row r="99" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B99" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C99" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="34"/>
-      <c r="E97" s="24"/>
-    </row>
-    <row r="98" spans="1:5" ht="255.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+      <c r="D99" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E99" s="8"/>
+      <c r="F99" s="7"/>
+    </row>
+    <row r="100" spans="1:6" ht="255.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B100" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="24"/>
-    </row>
-    <row r="99" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+      <c r="D100" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F100" s="7"/>
+    </row>
+    <row r="101" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B101" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D99" s="34"/>
-      <c r="E99" s="24"/>
-    </row>
-    <row r="100" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+      <c r="D101" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E101" s="8"/>
+      <c r="F101" s="7"/>
+    </row>
+    <row r="102" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B102" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D100" s="34"/>
-      <c r="E100" s="24"/>
-    </row>
-    <row r="101" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
+      <c r="D102" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E102" s="8"/>
+      <c r="F102" s="7"/>
+    </row>
+    <row r="103" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B103" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D101" s="34"/>
-      <c r="E101" s="24"/>
-    </row>
-    <row r="102" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
+      <c r="D103" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E103" s="8"/>
+      <c r="F103" s="7"/>
+    </row>
+    <row r="104" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B104" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D102" s="34"/>
-      <c r="E102" s="24"/>
-    </row>
-    <row r="103" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="42" t="s">
+      <c r="D104" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E104" s="8"/>
+      <c r="F104" s="7"/>
+    </row>
+    <row r="105" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B103" s="43" t="s">
+      <c r="B105" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C103" s="44" t="s">
+      <c r="C105" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D103" s="45"/>
-      <c r="E103" s="46"/>
-    </row>
-    <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="42" t="s">
+      <c r="D105" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E105" s="8"/>
+      <c r="F105" s="7"/>
+    </row>
+    <row r="106" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B104" s="43" t="s">
+      <c r="B106" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="C104" s="44" t="s">
+      <c r="C106" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D104" s="45"/>
-      <c r="E104" s="46"/>
-    </row>
-    <row r="105" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="42" t="s">
+      <c r="D106" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E106" s="8"/>
+      <c r="F106" s="7"/>
+    </row>
+    <row r="107" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B105" s="43" t="s">
+      <c r="B107" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="C105" s="44" t="s">
+      <c r="C107" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D105" s="45"/>
-      <c r="E105" s="46"/>
-    </row>
-    <row r="106" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="42" t="s">
+      <c r="D107" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E107" s="8"/>
+      <c r="F107" s="7"/>
+    </row>
+    <row r="108" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B106" s="43" t="s">
+      <c r="B108" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="C106" s="44" t="s">
+      <c r="C108" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D106" s="45"/>
-      <c r="E106" s="46"/>
-    </row>
-    <row r="107" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="42" t="s">
+      <c r="D108" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E108" s="8"/>
+      <c r="F108" s="7"/>
+    </row>
+    <row r="109" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B107" s="43" t="s">
+      <c r="B109" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="C107" s="44" t="s">
+      <c r="C109" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D107" s="45"/>
-      <c r="E107" s="46"/>
-    </row>
-    <row r="108" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="47" t="s">
+      <c r="D109" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E109" s="8"/>
+      <c r="F109" s="7"/>
+    </row>
+    <row r="110" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B108" s="48" t="s">
+      <c r="B110" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="C108" s="49" t="s">
+      <c r="C110" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D108" s="34"/>
-      <c r="E108" s="24"/>
-    </row>
-    <row r="109" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="47" t="s">
+      <c r="D110" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E110" s="8"/>
+      <c r="F110" s="7"/>
+    </row>
+    <row r="111" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B109" s="48" t="s">
+      <c r="B111" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="C109" s="49" t="s">
+      <c r="C111" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D109" s="34"/>
-      <c r="E109" s="24"/>
-    </row>
-    <row r="110" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="47" t="s">
+      <c r="D111" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E111" s="8"/>
+      <c r="F111" s="7"/>
+    </row>
+    <row r="112" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B110" s="48" t="s">
+      <c r="B112" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="C110" s="49" t="s">
+      <c r="C112" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D110" s="34"/>
-      <c r="E110" s="24"/>
-    </row>
-    <row r="111" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="47" t="s">
+      <c r="D112" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E112" s="8"/>
+      <c r="F112" s="7"/>
+    </row>
+    <row r="113" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B111" s="48" t="s">
+      <c r="B113" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="C111" s="49" t="s">
+      <c r="C113" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D111" s="34"/>
-      <c r="E111" s="24"/>
-    </row>
-    <row r="112" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="47" t="s">
+      <c r="D113" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E113" s="8"/>
+      <c r="F113" s="7"/>
+    </row>
+    <row r="114" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B112" s="48" t="s">
+      <c r="B114" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="C112" s="49" t="s">
+      <c r="C114" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D112" s="34"/>
-      <c r="E112" s="24"/>
-    </row>
-    <row r="113" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="47" t="s">
+      <c r="D114" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E114" s="8"/>
+      <c r="F114" s="7"/>
+    </row>
+    <row r="115" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B113" s="48" t="s">
+      <c r="B115" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="C113" s="49" t="s">
+      <c r="C115" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D113" s="34"/>
-      <c r="E113" s="24"/>
-    </row>
-    <row r="114" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="47" t="s">
+      <c r="D115" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E115" s="8"/>
+      <c r="F115" s="7"/>
+    </row>
+    <row r="116" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B114" s="48" t="s">
+      <c r="B116" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="C114" s="49" t="s">
+      <c r="C116" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D114" s="34"/>
-      <c r="E114" s="24"/>
-    </row>
-    <row r="115" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="47" t="s">
+      <c r="D116" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E116" s="8"/>
+      <c r="F116" s="7"/>
+    </row>
+    <row r="117" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B115" s="48" t="s">
+      <c r="B117" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="C115" s="49" t="s">
+      <c r="C117" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D115" s="34"/>
-      <c r="E115" s="24"/>
-    </row>
-    <row r="116" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="47" t="s">
+      <c r="D117" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E117" s="8"/>
+      <c r="F117" s="7"/>
+    </row>
+    <row r="118" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B116" s="48" t="s">
+      <c r="B118" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="C116" s="49" t="s">
+      <c r="C118" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D116" s="34"/>
-      <c r="E116" s="24"/>
-    </row>
-    <row r="117" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="47" t="s">
+      <c r="D118" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E118" s="8"/>
+      <c r="F118" s="7"/>
+    </row>
+    <row r="119" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B117" s="48" t="s">
+      <c r="B119" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="C117" s="49" t="s">
+      <c r="C119" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D117" s="34"/>
-      <c r="E117" s="24"/>
-    </row>
-    <row r="118" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
+      <c r="D119" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E119" s="8"/>
+      <c r="F119" s="7"/>
+    </row>
+    <row r="120" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B120" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C120" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D118" s="34"/>
-      <c r="E118" s="24"/>
-    </row>
-    <row r="119" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
+      <c r="D120" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E120" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F120" s="7"/>
+    </row>
+    <row r="121" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B121" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C121" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D119" s="34"/>
-      <c r="E119" s="24"/>
-    </row>
-    <row r="120" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="42" t="s">
+      <c r="D121" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E121" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F121" s="7"/>
+    </row>
+    <row r="122" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B120" s="43" t="s">
+      <c r="B122" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="C120" s="44" t="s">
+      <c r="C122" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="D120" s="45"/>
-      <c r="E120" s="46"/>
-    </row>
-    <row r="121" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="42" t="s">
+      <c r="D122" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E122" s="8"/>
+      <c r="F122" s="7"/>
+    </row>
+    <row r="123" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B121" s="43" t="s">
+      <c r="B123" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="C121" s="44" t="s">
+      <c r="C123" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="D121" s="45"/>
-      <c r="E121" s="46"/>
-    </row>
-    <row r="122" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="42" t="s">
+      <c r="D123" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E123" s="8"/>
+      <c r="F123" s="7"/>
+    </row>
+    <row r="124" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B122" s="43" t="s">
+      <c r="B124" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="C122" s="44" t="s">
+      <c r="C124" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="D122" s="45"/>
-      <c r="E122" s="46"/>
-    </row>
-    <row r="123" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
+      <c r="D124" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E124" s="8"/>
+      <c r="F124" s="7"/>
+    </row>
+    <row r="125" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B125" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C125" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D123" s="34"/>
-      <c r="E123" s="24"/>
-    </row>
-    <row r="124" spans="1:5" ht="132" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
+      <c r="D125" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E125" s="31"/>
+      <c r="F125" s="7"/>
+    </row>
+    <row r="126" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B126" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C126" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D124" s="34"/>
-      <c r="E124" s="24"/>
-    </row>
-    <row r="125" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
+      <c r="D126" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E126" s="31"/>
+      <c r="F126" s="7"/>
+    </row>
+    <row r="127" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B127" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C127" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D125" s="34"/>
-      <c r="E125" s="24"/>
-    </row>
-    <row r="126" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
+      <c r="D127" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E127" s="31"/>
+      <c r="F127" s="7"/>
+    </row>
+    <row r="128" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B128" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C128" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D126" s="34"/>
-      <c r="E126" s="24"/>
-    </row>
-    <row r="127" spans="1:5" ht="149.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
+      <c r="D128" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E128" s="31"/>
+      <c r="F128" s="7"/>
+    </row>
+    <row r="129" spans="1:6" ht="149.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B129" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D127" s="34"/>
-      <c r="E127" s="24"/>
-    </row>
-    <row r="128" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D128" s="34"/>
-      <c r="E128" s="24"/>
-    </row>
-    <row r="129" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D129" s="34"/>
-      <c r="E129" s="24"/>
-    </row>
-    <row r="130" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
+      <c r="D129" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E129" s="31"/>
+      <c r="F129" s="7"/>
+    </row>
+    <row r="130" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="14" t="s">
         <v>115</v>
       </c>
       <c r="B130" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D130" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E130" s="31"/>
+      <c r="F130" s="7"/>
+    </row>
+    <row r="131" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D131" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E131" s="31"/>
+      <c r="F131" s="7"/>
+    </row>
+    <row r="132" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C132" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D130" s="34"/>
-      <c r="E130" s="24"/>
-    </row>
-    <row r="131" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
+      <c r="D132" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E132" s="31"/>
+      <c r="F132" s="7"/>
+    </row>
+    <row r="133" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B133" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C133" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D131" s="34"/>
-      <c r="E131" s="24"/>
-    </row>
-    <row r="132" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
+      <c r="D133" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E133" s="31"/>
+      <c r="F133" s="7"/>
+    </row>
+    <row r="134" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B134" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C134" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D132" s="34"/>
-      <c r="E132" s="24"/>
-    </row>
-    <row r="133" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
+      <c r="D134" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E134" s="31"/>
+      <c r="F134" s="7"/>
+    </row>
+    <row r="135" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B135" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C135" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D133" s="34"/>
-      <c r="E133" s="24"/>
-    </row>
-    <row r="134" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
+      <c r="D135" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E135" s="31"/>
+      <c r="F135" s="7"/>
+    </row>
+    <row r="136" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B136" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C136" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D134" s="34"/>
-      <c r="E134" s="24"/>
-    </row>
-    <row r="135" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
+      <c r="D136" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E136" s="31"/>
+      <c r="F136" s="7"/>
+    </row>
+    <row r="137" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B137" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D135" s="34"/>
-      <c r="E135" s="24"/>
-    </row>
-    <row r="136" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D136" s="34"/>
-      <c r="E136" s="24"/>
-    </row>
-    <row r="137" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D137" s="35"/>
-      <c r="E137" s="25"/>
-    </row>
-    <row r="138" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="13" t="s">
+      <c r="D137" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="E137" s="8"/>
+      <c r="F137" s="7"/>
+    </row>
+    <row r="138" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D138" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E138" s="8"/>
+      <c r="F138" s="7"/>
+    </row>
+    <row r="139" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D139" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="E139" s="8"/>
+      <c r="F139" s="7"/>
+    </row>
+    <row r="140" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C138" s="14" t="s">
+      <c r="C140" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D138" s="36"/>
-      <c r="E138" s="26"/>
-    </row>
-    <row r="139" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="15" t="s">
+      <c r="D140" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E140" s="8"/>
+      <c r="F140" s="7"/>
+    </row>
+    <row r="141" spans="1:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B139" s="16" t="s">
+      <c r="B141" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C139" s="17" t="s">
+      <c r="C141" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D139" s="36"/>
-      <c r="E139" s="26"/>
-    </row>
-    <row r="140" spans="1:5" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="15" t="s">
+      <c r="D141" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E141" s="8"/>
+      <c r="F141" s="7"/>
+    </row>
+    <row r="142" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B140" s="18" t="s">
+      <c r="B142" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C140" s="17" t="s">
+      <c r="C142" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D140" s="36"/>
-      <c r="E140" s="26"/>
-    </row>
-    <row r="141" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="15" t="s">
+      <c r="D142" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E142" s="8"/>
+      <c r="F142" s="7"/>
+    </row>
+    <row r="143" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B141" s="19" t="s">
+      <c r="B143" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C141" s="17" t="s">
+      <c r="C143" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D141" s="36"/>
-      <c r="E141" s="26"/>
-    </row>
-    <row r="142" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="15" t="s">
+      <c r="D143" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E143" s="8"/>
+      <c r="F143" s="7"/>
+    </row>
+    <row r="144" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B142" s="19" t="s">
+      <c r="B144" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C142" s="17" t="s">
+      <c r="C144" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D142" s="36"/>
-      <c r="E142" s="26"/>
-    </row>
-    <row r="143" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="15" t="s">
+      <c r="D144" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E144" s="8"/>
+      <c r="F144" s="7"/>
+    </row>
+    <row r="145" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B143" s="19" t="s">
+      <c r="B145" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C143" s="17" t="s">
+      <c r="C145" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D143" s="36"/>
-      <c r="E143" s="26"/>
-    </row>
-    <row r="144" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="15" t="s">
+      <c r="D145" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E145" s="8"/>
+      <c r="F145" s="7"/>
+    </row>
+    <row r="146" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B144" s="19" t="s">
+      <c r="B146" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C144" s="17" t="s">
+      <c r="C146" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D144" s="36"/>
-      <c r="E144" s="26"/>
-    </row>
-    <row r="145" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="15" t="s">
+      <c r="D146" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E146" s="8"/>
+      <c r="F146" s="7"/>
+    </row>
+    <row r="147" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B145" s="19" t="s">
+      <c r="B147" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C145" s="17" t="s">
+      <c r="C147" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D145" s="36"/>
-      <c r="E145" s="26"/>
-    </row>
-    <row r="146" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="15" t="s">
+      <c r="D147" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E147" s="8"/>
+      <c r="F147" s="7"/>
+    </row>
+    <row r="148" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B146" s="19" t="s">
+      <c r="B148" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C146" s="17" t="s">
+      <c r="C148" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D146" s="36"/>
-      <c r="E146" s="26"/>
-    </row>
-    <row r="147" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="15" t="s">
+      <c r="D148" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E148" s="8"/>
+      <c r="F148" s="7"/>
+    </row>
+    <row r="149" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B147" s="19" t="s">
+      <c r="B149" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C147" s="17" t="s">
+      <c r="C149" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D147" s="36"/>
-      <c r="E147" s="26"/>
-    </row>
-    <row r="148" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="15" t="s">
+      <c r="D149" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E149" s="8"/>
+      <c r="F149" s="7"/>
+    </row>
+    <row r="150" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B148" s="19" t="s">
+      <c r="B150" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C148" s="17" t="s">
+      <c r="C150" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D148" s="36"/>
-      <c r="E148" s="26"/>
-    </row>
-    <row r="149" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="15" t="s">
+      <c r="D150" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E150" s="8"/>
+      <c r="F150" s="7"/>
+    </row>
+    <row r="151" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B149" s="19" t="s">
+      <c r="B151" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C149" s="17" t="s">
+      <c r="C151" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D149" s="36"/>
-      <c r="E149" s="26"/>
-    </row>
-    <row r="150" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="15" t="s">
+      <c r="D151" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E151" s="8"/>
+      <c r="F151" s="7"/>
+    </row>
+    <row r="152" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B150" s="19" t="s">
+      <c r="B152" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C150" s="17" t="s">
+      <c r="C152" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D150" s="36"/>
-      <c r="E150" s="26"/>
-    </row>
-    <row r="151" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="15" t="s">
+      <c r="D152" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E152" s="8"/>
+      <c r="F152" s="7"/>
+    </row>
+    <row r="153" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B151" s="19" t="s">
+      <c r="B153" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C151" s="17" t="s">
+      <c r="C153" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D151" s="36"/>
-      <c r="E151" s="26"/>
-    </row>
-    <row r="152" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="15" t="s">
+      <c r="D153" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E153" s="8"/>
+      <c r="F153" s="7"/>
+    </row>
+    <row r="154" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B152" s="19" t="s">
+      <c r="B154" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C152" s="17" t="s">
+      <c r="C154" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D152" s="36"/>
-      <c r="E152" s="26"/>
-    </row>
-    <row r="153" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="15" t="s">
+      <c r="D154" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E154" s="8"/>
+      <c r="F154" s="7"/>
+    </row>
+    <row r="155" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B153" s="19" t="s">
+      <c r="B155" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C153" s="17" t="s">
+      <c r="C155" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D153" s="36"/>
-      <c r="E153" s="26"/>
-    </row>
-    <row r="154" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="15" t="s">
+      <c r="D155" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E155" s="8"/>
+      <c r="F155" s="7"/>
+    </row>
+    <row r="156" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B154" s="19" t="s">
+      <c r="B156" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C154" s="17" t="s">
+      <c r="C156" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D154" s="36"/>
-      <c r="E154" s="27"/>
-    </row>
-    <row r="155" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="15" t="s">
+      <c r="D156" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E156" s="8"/>
+      <c r="F156" s="7"/>
+    </row>
+    <row r="157" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B155" s="19" t="s">
+      <c r="B157" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C155" s="17" t="s">
+      <c r="C157" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D155" s="37"/>
-      <c r="E155" s="28"/>
-      <c r="F155" s="20"/>
-    </row>
-    <row r="156" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="15" t="s">
+      <c r="D157" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E157" s="8"/>
+      <c r="F157" s="7"/>
+    </row>
+    <row r="158" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B156" s="18" t="s">
+      <c r="B158" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C156" s="17" t="s">
+      <c r="C158" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D156" s="37"/>
-      <c r="E156" s="29"/>
-      <c r="F156" s="20"/>
-    </row>
-    <row r="157" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="15" t="s">
+      <c r="D158" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E158" s="8"/>
+      <c r="F158" s="7"/>
+    </row>
+    <row r="159" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B157" s="18" t="s">
+      <c r="B159" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C157" s="17" t="s">
+      <c r="C159" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D157" s="38"/>
-      <c r="E157" s="28"/>
-      <c r="F157" s="20"/>
-    </row>
-    <row r="158" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="15" t="s">
+      <c r="D159" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E159" s="8"/>
+      <c r="F159" s="7"/>
+    </row>
+    <row r="160" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B158" s="18" t="s">
+      <c r="B160" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D160" s="20"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="7"/>
+    </row>
+    <row r="161" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B161" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C158" s="21" t="s">
+      <c r="C161" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D158" s="39"/>
-      <c r="E158" s="30"/>
-      <c r="F158" s="20"/>
-    </row>
-    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D159" s="20"/>
-      <c r="E159" s="20"/>
+      <c r="D161" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E161" s="8"/>
+      <c r="F161" s="7"/>
+    </row>
+    <row r="162" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D162" s="20"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="7"/>
+    </row>
+    <row r="163" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B163" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D163" s="20"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="7"/>
+    </row>
+    <row r="164" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D164" s="20"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="7"/>
+    </row>
+    <row r="165" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B165" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D165" s="20"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="7"/>
+    </row>
+    <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E66" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{2AB812CB-5CF8-9D43-B5C5-DA0DE863822F}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{C21E2DFC-D2E3-4E4C-A64A-698113D3F1FC}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{DF3A33C4-3842-2D4B-ABBB-3058997170A2}"/>
+    <hyperlink ref="E12" r:id="rId5" xr:uid="{77711FF4-C60B-6146-8A34-5DA7E6CE39B0}"/>
+    <hyperlink ref="E13" r:id="rId6" xr:uid="{63EE5E44-3D9F-F54A-9D69-10363A0497B7}"/>
+    <hyperlink ref="E17" r:id="rId7" xr:uid="{B16A2D19-B3D3-C147-85E5-CBE0209DD6DA}"/>
+    <hyperlink ref="E18" r:id="rId8" xr:uid="{62FFE1AD-F425-D546-B675-86DFE9860890}"/>
+    <hyperlink ref="E21" r:id="rId9" xr:uid="{26C8E438-5694-D44F-9B31-A25DB74D9C6D}"/>
+    <hyperlink ref="E22" r:id="rId10" xr:uid="{62899A67-1981-AF4F-A40D-0901B4CFBCFA}"/>
+    <hyperlink ref="E23" r:id="rId11" xr:uid="{B7A6D47E-4A0B-8D43-8ED1-400C369E4C7C}"/>
+    <hyperlink ref="E24" r:id="rId12" xr:uid="{D38A73E9-79C4-5B48-9846-E9ED4CED0A2F}"/>
+    <hyperlink ref="E25" r:id="rId13" xr:uid="{084D38F7-3ED3-7D49-8F80-20DCD2AB5263}"/>
+    <hyperlink ref="E26" r:id="rId14" xr:uid="{72D759FD-62E9-A842-BEE8-BBB78D12A35D}"/>
+    <hyperlink ref="E27" r:id="rId15" xr:uid="{10C5C155-0F33-DC44-8C20-B43FB5EEA92E}"/>
+    <hyperlink ref="E28" r:id="rId16" xr:uid="{339CEA3E-86D8-C44A-9444-DB303883A56B}"/>
+    <hyperlink ref="E29" r:id="rId17" xr:uid="{F51FFAAB-FA11-AA4B-9691-56F4A9AE50CC}"/>
+    <hyperlink ref="E30" r:id="rId18" xr:uid="{7D597DC8-C1CD-384F-AC00-75978E527355}"/>
+    <hyperlink ref="E31" r:id="rId19" xr:uid="{86990E15-6CE9-1240-ACDD-E6D35CAC575C}"/>
+    <hyperlink ref="E32" r:id="rId20" xr:uid="{7158407B-4343-A04C-A5CE-72019A0ABEAA}"/>
+    <hyperlink ref="E33" r:id="rId21" xr:uid="{5FCBEB30-5496-9442-8E67-2EF0E7D73861}"/>
+    <hyperlink ref="E34" r:id="rId22" xr:uid="{B4F734E9-C22B-024C-90AE-78CCE9FC1399}"/>
+    <hyperlink ref="E35" r:id="rId23" xr:uid="{55DE8A89-DA1D-9B48-8C17-765806374B5F}"/>
+    <hyperlink ref="E36" r:id="rId24" xr:uid="{FBDF506F-0324-9046-B086-1B1439CCBFBA}"/>
+    <hyperlink ref="E39" r:id="rId25" xr:uid="{C7A08C7F-F44E-FE4F-BCF1-94DAC3B558F2}"/>
+    <hyperlink ref="E40" r:id="rId26" xr:uid="{05039462-B734-C84F-9EE6-D54CD7EB547A}"/>
+    <hyperlink ref="E53" r:id="rId27" xr:uid="{ABF16656-F2C5-2F44-9225-EB3B28F6E136}"/>
+    <hyperlink ref="E55" r:id="rId28" xr:uid="{30B0EBFA-DE57-B049-9CA5-C860CEC4A1DE}"/>
+    <hyperlink ref="E88" r:id="rId29" xr:uid="{0C78752A-8771-954A-9E22-5AD70662BC6F}"/>
+    <hyperlink ref="E120" r:id="rId30" xr:uid="{80445C5E-AE17-D841-B7F7-8F24E1D2DA21}"/>
+    <hyperlink ref="E121" r:id="rId31" xr:uid="{9DACC7E0-1CF0-2246-9456-5FAC389ACF78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Data/BaselineCC.xlsx
+++ b/Data/BaselineCC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyamishra/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/Archive/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyamishra/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3FEEC0-B6E7-8C49-9562-5119A5D11CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ADFB44-A271-814D-80DC-13A13FC1D4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -955,15 +955,6 @@
   </si>
   <si>
     <t>You have received this survey because you currently care for one or more children. What best describes your role as a childcare provider? Select all that apply.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•I am a teacher in a licensed school/center-based childcare program  
-•I am a director/administrator of a licensed school/center-based childcare program  
-•I operate a licensed or registered home-based childcare program in my home                                                                     •I operate a licensed or registered home-based childcare program in my home  
-•I operate an unlicensed/license-exempt or unregistered home-based childcare program                                                  •I operate an unlicensed/license-exempt or unregistered childcare program in my client's home(s) 
-•I care for child(ren) age 0-5 of a family member, friend, or neighbor  
-•I care for child(ren) age 0-5 as a babysitter                             •I care for child(ren) age 0-5 as a nanny     
-•Other (please specify) [text entry] </t>
   </si>
   <si>
     <t>Do you spend time in the classroom(s) providing direct care to children in the program?</t>
@@ -1376,6 +1367,15 @@
     <t xml:space="preserve">•I am a teacher in a licensed school/center-based childcare program  
 •I am a director/administrator of a licensed school/center-based childcare program  
 •I operate a licensed or registered home-based childcare program in my home                                                                      
+•I operate an unlicensed/license-exempt or unregistered home-based childcare program                                                  •I operate an unlicensed/license-exempt or unregistered childcare program in my client's home(s) 
+•I care for child(ren) age 0-5 of a family member, friend, or neighbor  
+•I care for child(ren) age 0-5 as a babysitter                             •I care for child(ren) age 0-5 as a nanny     
+•Other (please specify) [text entry] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•I am a teacher in a licensed school/center-based childcare program  
+•I am a director/administrator of a licensed school/center-based childcare program  
+•I operate a licensed or registered home-based childcare program in my home                                                                       
 •I operate an unlicensed/license-exempt or unregistered home-based childcare program                                                  •I operate an unlicensed/license-exempt or unregistered childcare program in my client's home(s) 
 •I care for child(ren) age 0-5 of a family member, friend, or neighbor  
 •I care for child(ren) age 0-5 as a babysitter                             •I care for child(ren) age 0-5 as a nanny     
@@ -3014,8 +3014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B115" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4604,7 +4604,7 @@
         <v>204</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D118" s="40"/>
       <c r="E118" s="26"/>
@@ -4614,7 +4614,7 @@
         <v>203</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>18</v>
@@ -4627,10 +4627,10 @@
         <v>203</v>
       </c>
       <c r="B120" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="D120" s="40"/>
       <c r="E120" s="26"/>
@@ -4640,10 +4640,10 @@
         <v>203</v>
       </c>
       <c r="B121" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="D121" s="40"/>
       <c r="E121" s="26"/>
@@ -4653,10 +4653,10 @@
         <v>203</v>
       </c>
       <c r="B122" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="D122" s="40"/>
       <c r="E122" s="26"/>
@@ -4666,7 +4666,7 @@
         <v>203</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>18</v>
@@ -4679,10 +4679,10 @@
         <v>203</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="D124" s="40"/>
       <c r="E124" s="26"/>
@@ -4692,10 +4692,10 @@
         <v>203</v>
       </c>
       <c r="B125" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="D125" s="40"/>
       <c r="E125" s="26"/>
@@ -4705,10 +4705,10 @@
         <v>203</v>
       </c>
       <c r="B126" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="D126" s="40"/>
       <c r="E126" s="26"/>
@@ -4718,10 +4718,10 @@
         <v>203</v>
       </c>
       <c r="B127" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="D127" s="40"/>
       <c r="E127" s="26"/>
@@ -4731,10 +4731,10 @@
         <v>203</v>
       </c>
       <c r="B128" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="D128" s="40"/>
       <c r="E128" s="26"/>
@@ -4744,7 +4744,7 @@
         <v>203</v>
       </c>
       <c r="B129" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C129" s="54" t="s">
         <v>108</v>
@@ -4757,7 +4757,7 @@
         <v>203</v>
       </c>
       <c r="B130" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C130" s="54" t="s">
         <v>108</v>
@@ -4770,7 +4770,7 @@
         <v>203</v>
       </c>
       <c r="B131" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C131" s="54" t="s">
         <v>108</v>
@@ -4783,7 +4783,7 @@
         <v>203</v>
       </c>
       <c r="B132" s="53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C132" s="54" t="s">
         <v>108</v>
@@ -4796,7 +4796,7 @@
         <v>203</v>
       </c>
       <c r="B133" s="53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C133" s="54" t="s">
         <v>108</v>
@@ -4809,7 +4809,7 @@
         <v>203</v>
       </c>
       <c r="B134" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C134" s="59" t="s">
         <v>108</v>
@@ -4822,7 +4822,7 @@
         <v>203</v>
       </c>
       <c r="B135" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C135" s="59" t="s">
         <v>108</v>
@@ -4835,7 +4835,7 @@
         <v>203</v>
       </c>
       <c r="B136" s="58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C136" s="59" t="s">
         <v>108</v>
@@ -4848,7 +4848,7 @@
         <v>203</v>
       </c>
       <c r="B137" s="58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C137" s="59" t="s">
         <v>108</v>
@@ -4861,7 +4861,7 @@
         <v>203</v>
       </c>
       <c r="B138" s="58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C138" s="59" t="s">
         <v>108</v>
@@ -4874,7 +4874,7 @@
         <v>203</v>
       </c>
       <c r="B139" s="58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C139" s="59" t="s">
         <v>108</v>
@@ -4887,7 +4887,7 @@
         <v>203</v>
       </c>
       <c r="B140" s="58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C140" s="59" t="s">
         <v>108</v>
@@ -4900,7 +4900,7 @@
         <v>203</v>
       </c>
       <c r="B141" s="58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C141" s="59" t="s">
         <v>108</v>
@@ -4913,7 +4913,7 @@
         <v>203</v>
       </c>
       <c r="B142" s="58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C142" s="59" t="s">
         <v>108</v>
@@ -4926,7 +4926,7 @@
         <v>203</v>
       </c>
       <c r="B143" s="58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C143" s="59" t="s">
         <v>108</v>
@@ -4939,7 +4939,7 @@
         <v>203</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>29</v>
@@ -4952,10 +4952,10 @@
         <v>203</v>
       </c>
       <c r="B145" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C145" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="D145" s="40"/>
       <c r="E145" s="26"/>
@@ -4965,10 +4965,10 @@
         <v>203</v>
       </c>
       <c r="B146" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="C146" s="54" t="s">
         <v>238</v>
-      </c>
-      <c r="C146" s="54" t="s">
-        <v>239</v>
       </c>
       <c r="D146" s="55"/>
       <c r="E146" s="56"/>
@@ -4978,10 +4978,10 @@
         <v>203</v>
       </c>
       <c r="B147" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="C147" s="54" t="s">
         <v>240</v>
-      </c>
-      <c r="C147" s="54" t="s">
-        <v>241</v>
       </c>
       <c r="D147" s="55"/>
       <c r="E147" s="56"/>
@@ -4991,10 +4991,10 @@
         <v>203</v>
       </c>
       <c r="B148" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C148" s="54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D148" s="55"/>
       <c r="E148" s="56"/>
@@ -5004,10 +5004,10 @@
         <v>134</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D149" s="40"/>
       <c r="E149" s="26"/>
@@ -5017,10 +5017,10 @@
         <v>134</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D150" s="40"/>
       <c r="E150" s="26"/>
@@ -5030,10 +5030,10 @@
         <v>134</v>
       </c>
       <c r="B151" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C151" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="D151" s="40"/>
       <c r="E151" s="26"/>
@@ -5043,10 +5043,10 @@
         <v>134</v>
       </c>
       <c r="B152" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="D152" s="40"/>
       <c r="E152" s="26"/>
@@ -5056,10 +5056,10 @@
         <v>134</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D153" s="40"/>
       <c r="E153" s="26"/>
@@ -5072,7 +5072,7 @@
         <v>143</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D154" s="40"/>
       <c r="E154" s="26"/>
@@ -5082,10 +5082,10 @@
         <v>134</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D155" s="40"/>
       <c r="E155" s="26"/>
@@ -5095,10 +5095,10 @@
         <v>134</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D156" s="40"/>
       <c r="E156" s="26"/>
@@ -5108,10 +5108,10 @@
         <v>134</v>
       </c>
       <c r="B157" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="D157" s="40"/>
       <c r="E157" s="26"/>
@@ -5121,10 +5121,10 @@
         <v>134</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D158" s="40"/>
       <c r="E158" s="26"/>
@@ -5137,7 +5137,7 @@
         <v>148</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D159" s="40"/>
       <c r="E159" s="26"/>
@@ -5150,7 +5150,7 @@
         <v>150</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D160" s="40"/>
       <c r="E160" s="26"/>
@@ -5160,10 +5160,10 @@
         <v>134</v>
       </c>
       <c r="B161" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="D161" s="40"/>
       <c r="E161" s="26"/>
@@ -5173,10 +5173,10 @@
         <v>134</v>
       </c>
       <c r="B162" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C162" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="D162" s="40"/>
       <c r="E162" s="26"/>
@@ -5189,7 +5189,7 @@
         <v>156</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D163" s="41"/>
       <c r="E163" s="27"/>
@@ -5199,179 +5199,179 @@
         <v>134</v>
       </c>
       <c r="B164" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C164" s="15" t="s">
         <v>261</v>
-      </c>
-      <c r="C164" s="15" t="s">
-        <v>262</v>
       </c>
       <c r="D164" s="42"/>
       <c r="E164" s="28"/>
     </row>
     <row r="165" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B165" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B165" s="17" t="s">
+      <c r="C165" s="18" t="s">
         <v>264</v>
-      </c>
-      <c r="C165" s="18" t="s">
-        <v>265</v>
       </c>
       <c r="D165" s="42"/>
       <c r="E165" s="28"/>
     </row>
     <row r="166" spans="1:5" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C166" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D166" s="42"/>
       <c r="E166" s="28"/>
     </row>
     <row r="167" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B167" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C167" s="18" t="s">
         <v>267</v>
-      </c>
-      <c r="C167" s="18" t="s">
-        <v>268</v>
       </c>
       <c r="D167" s="42"/>
       <c r="E167" s="28"/>
     </row>
     <row r="168" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D168" s="42"/>
       <c r="E168" s="28"/>
     </row>
     <row r="169" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B169" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C169" s="18" t="s">
         <v>270</v>
-      </c>
-      <c r="C169" s="18" t="s">
-        <v>271</v>
       </c>
       <c r="D169" s="42"/>
       <c r="E169" s="28"/>
     </row>
     <row r="170" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C170" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D170" s="42"/>
       <c r="E170" s="28"/>
     </row>
     <row r="171" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D171" s="42"/>
       <c r="E171" s="28"/>
     </row>
     <row r="172" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C172" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D172" s="42"/>
       <c r="E172" s="28"/>
     </row>
     <row r="173" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D173" s="42"/>
       <c r="E173" s="28"/>
     </row>
     <row r="174" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D174" s="42"/>
       <c r="E174" s="28"/>
     </row>
     <row r="175" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B175" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C175" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D175" s="42"/>
       <c r="E175" s="28"/>
     </row>
     <row r="176" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B176" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C176" s="18" t="s">
         <v>278</v>
-      </c>
-      <c r="C176" s="18" t="s">
-        <v>279</v>
       </c>
       <c r="D176" s="42"/>
       <c r="E176" s="28"/>
     </row>
     <row r="177" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B177" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C177" s="18" t="s">
         <v>280</v>
-      </c>
-      <c r="C177" s="18" t="s">
-        <v>281</v>
       </c>
       <c r="D177" s="42"/>
       <c r="E177" s="28"/>
@@ -5384,7 +5384,7 @@
         <v>193</v>
       </c>
       <c r="C178" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D178" s="42"/>
       <c r="E178" s="28"/>
@@ -5397,7 +5397,7 @@
         <v>195</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D179" s="42"/>
       <c r="E179" s="28"/>
@@ -5410,20 +5410,20 @@
         <v>196</v>
       </c>
       <c r="C180" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D180" s="42"/>
       <c r="E180" s="29"/>
     </row>
     <row r="181" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B181" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="B181" s="20" t="s">
-        <v>284</v>
-      </c>
       <c r="C181" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D181" s="43"/>
       <c r="E181" s="30"/>
@@ -5431,13 +5431,13 @@
     </row>
     <row r="182" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D182" s="43"/>
       <c r="E182" s="31"/>
@@ -5445,13 +5445,13 @@
     </row>
     <row r="183" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D183" s="44"/>
       <c r="E183" s="30"/>
@@ -5459,13 +5459,13 @@
     </row>
     <row r="184" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C184" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D184" s="45"/>
       <c r="E184" s="32"/>
@@ -5473,13 +5473,13 @@
     </row>
     <row r="185" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B185" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="B185" s="19" t="s">
+      <c r="C185" s="18" t="s">
         <v>289</v>
-      </c>
-      <c r="C185" s="18" t="s">
-        <v>290</v>
       </c>
       <c r="D185" s="46"/>
       <c r="E185" s="33"/>
@@ -5487,13 +5487,13 @@
     </row>
     <row r="186" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B186" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C186" s="23" t="s">
         <v>291</v>
-      </c>
-      <c r="C186" s="23" t="s">
-        <v>292</v>
       </c>
       <c r="D186" s="45"/>
       <c r="E186" s="34"/>
@@ -5501,13 +5501,13 @@
     </row>
     <row r="187" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B187" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C187" s="23" t="s">
         <v>293</v>
-      </c>
-      <c r="C187" s="23" t="s">
-        <v>294</v>
       </c>
       <c r="D187" s="47"/>
       <c r="E187" s="35"/>
@@ -5515,13 +5515,13 @@
     </row>
     <row r="188" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B188" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C188" s="23" t="s">
         <v>295</v>
-      </c>
-      <c r="C188" s="23" t="s">
-        <v>296</v>
       </c>
       <c r="D188" s="47"/>
       <c r="E188" s="32"/>
@@ -5529,13 +5529,13 @@
     </row>
     <row r="189" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C189" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D189" s="48"/>
       <c r="E189" s="30"/>
@@ -5543,13 +5543,13 @@
     </row>
     <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B190" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="B190" s="20" t="s">
+      <c r="C190" s="18" t="s">
         <v>299</v>
-      </c>
-      <c r="C190" s="18" t="s">
-        <v>300</v>
       </c>
       <c r="D190" s="49"/>
       <c r="E190" s="36"/>

--- a/Data/BaselineCC.xlsx
+++ b/Data/BaselineCC.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjzsY+Pq0n8wIildm1vtHyMsNPeSw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjVSIUKRmEGjB8YIMTTTehf+Wy2iQ=="/>
     </ext>
   </extLst>
 </workbook>
